--- a/document/DSF 시퀀스.xlsx
+++ b/document/DSF 시퀀스.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="11280"/>
+    <workbookView windowWidth="29870" windowHeight="13280"/>
   </bookViews>
   <sheets>
     <sheet name="DSF Sequence" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="166">
   <si>
     <t>no</t>
   </si>
@@ -56,24 +56,36 @@
     <t>투입 트레이 투입 요청</t>
   </si>
   <si>
+    <t>바코드리더기 TrayIID Read</t>
+  </si>
+  <si>
+    <t>EventBCRTrayIDRead</t>
+  </si>
+  <si>
+    <t>바코드리더기 TrayID Read Confirm</t>
+  </si>
+  <si>
+    <t>EventHostTrayIDReadConfirm</t>
+  </si>
+  <si>
+    <t>바코드리더기 CellID Read</t>
+  </si>
+  <si>
+    <t>EventBCRCellIDRead</t>
+  </si>
+  <si>
+    <t>바코드리더기 CellID Read Confirm</t>
+  </si>
+  <si>
+    <t>EventHostCellIDReadConfirm</t>
+  </si>
+  <si>
     <t>투입부 Tray 도착 Confirm(Tray  투입 가능 체크)</t>
   </si>
   <si>
     <t>EventHostInletTrayArrivalConfirm</t>
   </si>
   <si>
-    <t>바코드리더기 CellID Read</t>
-  </si>
-  <si>
-    <t>EventBCRCellIDRead</t>
-  </si>
-  <si>
-    <t>바코드리더기 CellID Read Confirm</t>
-  </si>
-  <si>
-    <t>EventHostCellIDReadConfirm</t>
-  </si>
-  <si>
     <t>투입 Tray 투입 요청 with TrayID</t>
   </si>
   <si>
@@ -83,7 +95,7 @@
     <t>투입 Tray 투입 요청 Confirm</t>
   </si>
   <si>
-    <t>EventHostTrayInputConfirm</t>
+    <t>EventHostInletTrayInputConfirm</t>
   </si>
   <si>
     <t>투입 Tray 전체 셀 정보 요청 with trayId</t>
@@ -101,13 +113,13 @@
     <t>Recipe 요청 with TrayId</t>
   </si>
   <si>
-    <t>EventEqpRequestRecipeInfo</t>
+    <t>EventEqpRecipeInfoRequest</t>
   </si>
   <si>
     <t>Recipe 요청 Confirm with RouteId</t>
   </si>
   <si>
-    <t>EventHostConfirmRecipeInfo</t>
+    <t>EventHostRecipeInfoConfirm</t>
   </si>
   <si>
     <t>Rack 출고 요청 with TrayId/RackId</t>
@@ -302,13 +314,7 @@
     <t>[분기2 - 수동 투입] Recipe 요청 with TrayId</t>
   </si>
   <si>
-    <t>EventEqpRecipeInfoRequest</t>
-  </si>
-  <si>
     <t>[분기2 - 수동 투입] Recipe 요청 Confirm with RouteId</t>
-  </si>
-  <si>
-    <t>EventHostRecipeInfoConfirm</t>
   </si>
   <si>
     <t xml:space="preserve">[분기2 - 수동 투입] 수동 셀 투입 완료보고 </t>
@@ -691,7 +697,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="44">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -814,12 +820,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -838,24 +838,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -916,12 +904,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -934,19 +916,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1202,73 +1172,73 @@
     <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1672,10 +1642,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B3:G79"/>
+  <dimension ref="B3:G81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -1940,15 +1910,13 @@
         <v>17</v>
       </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="F20" s="5"/>
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="2:7">
@@ -1956,13 +1924,13 @@
         <v>18</v>
       </c>
       <c r="C21" s="3"/>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F21" s="7"/>
+      <c r="F21" s="5"/>
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="2:7">
@@ -1971,15 +1939,15 @@
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="F22" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="G22" s="3"/>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="3">
@@ -1987,15 +1955,13 @@
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="F23" s="7"/>
-      <c r="G23" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="G23" s="3"/>
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="3">
@@ -2003,13 +1969,15 @@
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" s="7"/>
+      <c r="G24" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="3"/>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="3">
@@ -2019,26 +1987,26 @@
       <c r="D25" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="3" t="s">
         <v>52</v>
       </c>
       <c r="F25" s="7"/>
-      <c r="G25" s="3"/>
+      <c r="G25" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="3">
         <v>23</v>
       </c>
       <c r="C26" s="3"/>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" t="s">
         <v>54</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>55</v>
-      </c>
+      <c r="F26" s="7"/>
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="2:7">
@@ -2046,11 +2014,11 @@
         <v>24</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" t="s">
         <v>56</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="3"/>
@@ -2061,12 +2029,14 @@
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="8" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F28" s="7"/>
+        <v>58</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="G28" s="3"/>
     </row>
     <row r="29" spans="2:7">
@@ -2075,10 +2045,10 @@
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="8" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="3"/>
@@ -2089,10 +2059,10 @@
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="8" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="3"/>
@@ -2103,10 +2073,10 @@
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="8" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="3"/>
@@ -2116,15 +2086,13 @@
         <v>29</v>
       </c>
       <c r="C32" s="3"/>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="8" t="s">
         <v>62</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F32" s="7" t="s">
-        <v>64</v>
-      </c>
+      <c r="F32" s="7"/>
       <c r="G32" s="3"/>
     </row>
     <row r="33" spans="2:7">
@@ -2132,11 +2100,11 @@
         <v>30</v>
       </c>
       <c r="C33" s="3"/>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="3"/>
@@ -2147,12 +2115,14 @@
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="F34" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F34" s="7"/>
       <c r="G34" s="3"/>
     </row>
     <row r="35" spans="2:7">
@@ -2230,15 +2200,13 @@
         <v>37</v>
       </c>
       <c r="C40" s="3"/>
-      <c r="D40" s="10" t="s">
+      <c r="D40" s="9" t="s">
         <v>79</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F40" s="11" t="s">
-        <v>81</v>
-      </c>
+      <c r="F40" s="7"/>
       <c r="G40" s="3"/>
     </row>
     <row r="41" spans="2:7">
@@ -2246,13 +2214,13 @@
         <v>38</v>
       </c>
       <c r="C41" s="3"/>
-      <c r="D41" s="10" t="s">
+      <c r="D41" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F41" s="12"/>
+      <c r="F41" s="7"/>
       <c r="G41" s="3"/>
     </row>
     <row r="42" spans="2:7">
@@ -2261,12 +2229,14 @@
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F42" s="12"/>
+      <c r="F42" s="11" t="s">
+        <v>85</v>
+      </c>
       <c r="G42" s="3"/>
     </row>
     <row r="43" spans="2:7">
@@ -2275,10 +2245,10 @@
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="E43" t="s">
-        <v>70</v>
+        <v>86</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="F43" s="12"/>
       <c r="G43" s="3"/>
@@ -2289,10 +2259,10 @@
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="F44" s="12"/>
       <c r="G44" s="3"/>
@@ -2303,10 +2273,10 @@
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E45" s="3" t="s">
         <v>89</v>
+      </c>
+      <c r="E45" t="s">
+        <v>74</v>
       </c>
       <c r="F45" s="12"/>
       <c r="G45" s="3"/>
@@ -2348,7 +2318,7 @@
         <v>94</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="F48" s="12"/>
       <c r="G48" s="3"/>
@@ -2359,12 +2329,12 @@
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F49" s="13"/>
+        <v>30</v>
+      </c>
+      <c r="F49" s="12"/>
       <c r="G49" s="3"/>
     </row>
     <row r="50" spans="2:7">
@@ -2372,15 +2342,13 @@
         <v>47</v>
       </c>
       <c r="C50" s="3"/>
-      <c r="D50" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="E50" t="s">
-        <v>99</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>100</v>
-      </c>
+      <c r="D50" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F50" s="12"/>
       <c r="G50" s="3"/>
     </row>
     <row r="51" spans="2:7">
@@ -2388,13 +2356,13 @@
         <v>48</v>
       </c>
       <c r="C51" s="3"/>
-      <c r="D51" s="14" t="s">
-        <v>101</v>
+      <c r="D51" s="10" t="s">
+        <v>98</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F51" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="F51" s="13"/>
       <c r="G51" s="3"/>
     </row>
     <row r="52" spans="2:7">
@@ -2403,12 +2371,14 @@
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F52" s="7"/>
+        <v>100</v>
+      </c>
+      <c r="E52" t="s">
+        <v>101</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="G52" s="3"/>
     </row>
     <row r="53" spans="2:7">
@@ -2417,10 +2387,10 @@
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F53" s="7"/>
       <c r="G53" s="3"/>
@@ -2431,10 +2401,10 @@
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F54" s="7"/>
       <c r="G54" s="3"/>
@@ -2445,10 +2415,10 @@
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F55" s="7"/>
       <c r="G55" s="3"/>
@@ -2457,33 +2427,29 @@
       <c r="B56" s="3">
         <v>53</v>
       </c>
-      <c r="C56" s="15"/>
-      <c r="D56" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="E56" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G56" s="15"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" s="7"/>
+      <c r="G56" s="3"/>
     </row>
     <row r="57" spans="2:7">
       <c r="B57" s="3">
         <v>54</v>
       </c>
-      <c r="C57" s="15"/>
-      <c r="D57" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="E57" s="15" t="s">
-        <v>115</v>
+      <c r="C57" s="3"/>
+      <c r="D57" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="F57" s="7"/>
-      <c r="G57" s="15" t="s">
-        <v>116</v>
-      </c>
+      <c r="G57" s="3"/>
     </row>
     <row r="58" spans="2:7">
       <c r="B58" s="3">
@@ -2491,12 +2457,14 @@
       </c>
       <c r="C58" s="15"/>
       <c r="D58" s="16" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="F58" s="7"/>
+        <v>114</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>115</v>
+      </c>
       <c r="G58" s="15"/>
     </row>
     <row r="59" spans="2:7">
@@ -2505,43 +2473,43 @@
       </c>
       <c r="C59" s="15"/>
       <c r="D59" s="16" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F59" s="7"/>
-      <c r="G59" s="15"/>
+      <c r="G59" s="15" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="60" spans="2:7">
       <c r="B60" s="3">
         <v>57</v>
       </c>
-      <c r="C60" s="3"/>
-      <c r="D60" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G60" s="3"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="E60" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="F60" s="7"/>
+      <c r="G60" s="15"/>
     </row>
     <row r="61" spans="2:7">
       <c r="B61" s="3">
         <v>58</v>
       </c>
-      <c r="C61" s="3"/>
-      <c r="D61" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>125</v>
+      <c r="C61" s="15"/>
+      <c r="D61" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="E61" s="15" t="s">
+        <v>122</v>
       </c>
       <c r="F61" s="7"/>
-      <c r="G61" s="3"/>
+      <c r="G61" s="15"/>
     </row>
     <row r="62" spans="2:7">
       <c r="B62" s="3">
@@ -2549,12 +2517,14 @@
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="17" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F62" s="7"/>
+        <v>124</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>125</v>
+      </c>
       <c r="G62" s="3"/>
     </row>
     <row r="63" spans="2:7">
@@ -2563,10 +2533,10 @@
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F63" s="7"/>
       <c r="G63" s="3"/>
@@ -2577,10 +2547,10 @@
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F64" s="7"/>
       <c r="G64" s="3"/>
@@ -2591,10 +2561,10 @@
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F65" s="7"/>
       <c r="G65" s="3"/>
@@ -2605,10 +2575,10 @@
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F66" s="7"/>
       <c r="G66" s="3"/>
@@ -2619,10 +2589,10 @@
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F67" s="7"/>
       <c r="G67" s="3"/>
@@ -2633,10 +2603,10 @@
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="17" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F68" s="7"/>
       <c r="G68" s="3"/>
@@ -2647,10 +2617,10 @@
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F69" s="7"/>
       <c r="G69" s="3"/>
@@ -2660,15 +2630,13 @@
         <v>67</v>
       </c>
       <c r="C70" s="3"/>
-      <c r="D70" s="18" t="s">
-        <v>142</v>
+      <c r="D70" s="17" t="s">
+        <v>140</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F70" s="11" t="s">
-        <v>144</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="F70" s="7"/>
       <c r="G70" s="3"/>
     </row>
     <row r="71" spans="2:7">
@@ -2676,13 +2644,13 @@
         <v>68</v>
       </c>
       <c r="C71" s="3"/>
-      <c r="D71" s="18" t="s">
-        <v>145</v>
+      <c r="D71" s="17" t="s">
+        <v>142</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F71" s="12"/>
+        <v>143</v>
+      </c>
+      <c r="F71" s="7"/>
       <c r="G71" s="3"/>
     </row>
     <row r="72" spans="2:7">
@@ -2691,12 +2659,14 @@
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="18" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F72" s="12"/>
+        <v>145</v>
+      </c>
+      <c r="F72" s="11" t="s">
+        <v>146</v>
+      </c>
       <c r="G72" s="3"/>
     </row>
     <row r="73" spans="2:7">
@@ -2705,43 +2675,41 @@
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="18" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="F73" s="13"/>
+        <v>148</v>
+      </c>
+      <c r="F73" s="12"/>
       <c r="G73" s="3"/>
     </row>
     <row r="74" spans="2:7">
       <c r="B74" s="3">
         <v>71</v>
       </c>
-      <c r="C74" s="15"/>
-      <c r="D74" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="E74" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="F74" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="G74" s="15"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F74" s="12"/>
+      <c r="G74" s="3"/>
     </row>
     <row r="75" spans="2:7">
       <c r="B75" s="3">
         <v>72</v>
       </c>
-      <c r="C75" s="15"/>
-      <c r="D75" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="E75" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="F75" s="12"/>
-      <c r="G75" s="15"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F75" s="13"/>
+      <c r="G75" s="3"/>
     </row>
     <row r="76" spans="2:7">
       <c r="B76" s="3">
@@ -2749,12 +2717,14 @@
       </c>
       <c r="C76" s="15"/>
       <c r="D76" s="19" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E76" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="F76" s="12"/>
+        <v>154</v>
+      </c>
+      <c r="F76" s="11" t="s">
+        <v>155</v>
+      </c>
       <c r="G76" s="15"/>
     </row>
     <row r="77" spans="2:7">
@@ -2763,10 +2733,10 @@
       </c>
       <c r="C77" s="15"/>
       <c r="D77" s="19" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E77" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F77" s="12"/>
       <c r="G77" s="15"/>
@@ -2777,10 +2747,10 @@
       </c>
       <c r="C78" s="15"/>
       <c r="D78" s="19" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E78" s="15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F78" s="12"/>
       <c r="G78" s="15"/>
@@ -2791,26 +2761,54 @@
       </c>
       <c r="C79" s="15"/>
       <c r="D79" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="E79" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="F79" s="12"/>
+      <c r="G79" s="15"/>
+    </row>
+    <row r="80" spans="2:7">
+      <c r="B80" s="3">
+        <v>77</v>
+      </c>
+      <c r="C80" s="15"/>
+      <c r="D80" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="E79" s="15" t="s">
+      <c r="E80" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="F79" s="13"/>
-      <c r="G79" s="15"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="15"/>
+    </row>
+    <row r="81" spans="2:7">
+      <c r="B81" s="3">
+        <v>78</v>
+      </c>
+      <c r="C81" s="15"/>
+      <c r="D81" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="E81" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="F81" s="13"/>
+      <c r="G81" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="F4:F19"/>
-    <mergeCell ref="F20:F25"/>
-    <mergeCell ref="F26:F31"/>
-    <mergeCell ref="F32:F39"/>
-    <mergeCell ref="F40:F49"/>
-    <mergeCell ref="F50:F55"/>
-    <mergeCell ref="F56:F59"/>
-    <mergeCell ref="F60:F69"/>
-    <mergeCell ref="F70:F73"/>
-    <mergeCell ref="F74:F79"/>
+    <mergeCell ref="F4:F21"/>
+    <mergeCell ref="F22:F27"/>
+    <mergeCell ref="F28:F33"/>
+    <mergeCell ref="F34:F41"/>
+    <mergeCell ref="F42:F51"/>
+    <mergeCell ref="F52:F57"/>
+    <mergeCell ref="F58:F61"/>
+    <mergeCell ref="F62:F71"/>
+    <mergeCell ref="F72:F75"/>
+    <mergeCell ref="F76:F81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/document/DSF 시퀀스.xlsx
+++ b/document/DSF 시퀀스.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="170">
   <si>
     <t>no</t>
   </si>
@@ -186,6 +186,18 @@
   </si>
   <si>
     <t>EventHostTrayBreakConfirm</t>
+  </si>
+  <si>
+    <t>Tray Break 완료 요청</t>
+  </si>
+  <si>
+    <t>EventEqpTrayBreakCompleteRequest</t>
+  </si>
+  <si>
+    <t>Tray Break 완료 요청 Confirm</t>
+  </si>
+  <si>
+    <t>EventHostTrayBreakCompleteConfirm</t>
   </si>
   <si>
     <t>배출 Tray 투입 완료 요청</t>
@@ -1642,10 +1654,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B3:G81"/>
+  <dimension ref="B3:G83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -1997,13 +2009,13 @@
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="3">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="3" t="s">
         <v>54</v>
       </c>
       <c r="F26" s="7"/>
@@ -2011,13 +2023,13 @@
     </row>
     <row r="27" spans="2:7">
       <c r="B27" s="3">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="3" t="s">
         <v>56</v>
       </c>
       <c r="F27" s="7"/>
@@ -2025,137 +2037,137 @@
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="3">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C28" s="3"/>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" t="s">
         <v>58</v>
       </c>
-      <c r="F28" s="7" t="s">
-        <v>59</v>
-      </c>
+      <c r="F28" s="7"/>
       <c r="G28" s="3"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="3">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" t="s">
         <v>60</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="3"/>
     </row>
     <row r="30" spans="2:7">
       <c r="B30" s="3">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="8" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F30" s="7"/>
+        <v>62</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="G30" s="3"/>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" s="3">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="8" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="3"/>
     </row>
     <row r="32" spans="2:7">
       <c r="B32" s="3">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="8" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="3"/>
     </row>
     <row r="33" spans="2:7">
       <c r="B33" s="3">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="8" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="3"/>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="3">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C34" s="3"/>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="8" t="s">
         <v>66</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F34" s="7" t="s">
-        <v>68</v>
-      </c>
+      <c r="F34" s="7"/>
       <c r="G34" s="3"/>
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="3">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C35" s="3"/>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="3"/>
     </row>
     <row r="36" spans="2:7">
       <c r="B36" s="3">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="F36" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F36" s="7"/>
       <c r="G36" s="3"/>
     </row>
     <row r="37" spans="2:7">
       <c r="B37" s="3">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="9" t="s">
@@ -2169,7 +2181,7 @@
     </row>
     <row r="38" spans="2:7">
       <c r="B38" s="3">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="9" t="s">
@@ -2183,7 +2195,7 @@
     </row>
     <row r="39" spans="2:7">
       <c r="B39" s="3">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="9" t="s">
@@ -2197,7 +2209,7 @@
     </row>
     <row r="40" spans="2:7">
       <c r="B40" s="3">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="9" t="s">
@@ -2211,7 +2223,7 @@
     </row>
     <row r="41" spans="2:7">
       <c r="B41" s="3">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="9" t="s">
@@ -2225,193 +2237,193 @@
     </row>
     <row r="42" spans="2:7">
       <c r="B42" s="3">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C42" s="3"/>
-      <c r="D42" s="10" t="s">
+      <c r="D42" s="9" t="s">
         <v>83</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F42" s="11" t="s">
-        <v>85</v>
-      </c>
+      <c r="F42" s="7"/>
       <c r="G42" s="3"/>
     </row>
     <row r="43" spans="2:7">
       <c r="B43" s="3">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C43" s="3"/>
-      <c r="D43" s="10" t="s">
+      <c r="D43" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E43" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F43" s="12"/>
+      <c r="F43" s="7"/>
       <c r="G43" s="3"/>
     </row>
     <row r="44" spans="2:7">
       <c r="B44" s="3">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E44" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F44" s="12"/>
+      <c r="F44" s="11" t="s">
+        <v>89</v>
+      </c>
       <c r="G44" s="3"/>
     </row>
     <row r="45" spans="2:7">
       <c r="B45" s="3">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E45" t="s">
-        <v>74</v>
+        <v>90</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="F45" s="12"/>
       <c r="G45" s="3"/>
     </row>
     <row r="46" spans="2:7">
       <c r="B46" s="3">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="F46" s="12"/>
       <c r="G46" s="3"/>
     </row>
     <row r="47" spans="2:7">
       <c r="B47" s="3">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E47" s="3" t="s">
         <v>93</v>
+      </c>
+      <c r="E47" t="s">
+        <v>78</v>
       </c>
       <c r="F47" s="12"/>
       <c r="G47" s="3"/>
     </row>
     <row r="48" spans="2:7">
       <c r="B48" s="3">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="10" t="s">
         <v>94</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="F48" s="12"/>
       <c r="G48" s="3"/>
     </row>
     <row r="49" spans="2:7">
       <c r="B49" s="3">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="F49" s="12"/>
       <c r="G49" s="3"/>
     </row>
     <row r="50" spans="2:7">
       <c r="B50" s="3">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="F50" s="12"/>
       <c r="G50" s="3"/>
     </row>
     <row r="51" spans="2:7">
       <c r="B51" s="3">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F51" s="13"/>
+        <v>30</v>
+      </c>
+      <c r="F51" s="12"/>
       <c r="G51" s="3"/>
     </row>
     <row r="52" spans="2:7">
       <c r="B52" s="3">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C52" s="3"/>
-      <c r="D52" s="14" t="s">
+      <c r="D52" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="F52" s="7" t="s">
-        <v>102</v>
-      </c>
+      <c r="F52" s="12"/>
       <c r="G52" s="3"/>
     </row>
     <row r="53" spans="2:7">
       <c r="B53" s="3">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C53" s="3"/>
-      <c r="D53" s="14" t="s">
+      <c r="D53" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E53" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E53" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F53" s="7"/>
+      <c r="F53" s="13"/>
       <c r="G53" s="3"/>
     </row>
     <row r="54" spans="2:7">
       <c r="B54" s="3">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E54" t="s">
         <v>105</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="F54" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F54" s="7"/>
       <c r="G54" s="3"/>
     </row>
     <row r="55" spans="2:7">
       <c r="B55" s="3">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="14" t="s">
@@ -2425,7 +2437,7 @@
     </row>
     <row r="56" spans="2:7">
       <c r="B56" s="3">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="14" t="s">
@@ -2439,7 +2451,7 @@
     </row>
     <row r="57" spans="2:7">
       <c r="B57" s="3">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="14" t="s">
@@ -2453,111 +2465,111 @@
     </row>
     <row r="58" spans="2:7">
       <c r="B58" s="3">
-        <v>55</v>
-      </c>
-      <c r="C58" s="15"/>
-      <c r="D58" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C58" s="3"/>
+      <c r="D58" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="E58" s="15" t="s">
+      <c r="E58" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F58" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G58" s="15"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="3"/>
     </row>
     <row r="59" spans="2:7">
       <c r="B59" s="3">
-        <v>56</v>
-      </c>
-      <c r="C59" s="15"/>
-      <c r="D59" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59" s="3"/>
+      <c r="D59" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="E59" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E59" s="15" t="s">
-        <v>117</v>
-      </c>
       <c r="F59" s="7"/>
-      <c r="G59" s="15" t="s">
-        <v>118</v>
-      </c>
+      <c r="G59" s="3"/>
     </row>
     <row r="60" spans="2:7">
       <c r="B60" s="3">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C60" s="15"/>
       <c r="D60" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="E60" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E60" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="F60" s="7"/>
       <c r="G60" s="15"/>
     </row>
     <row r="61" spans="2:7">
       <c r="B61" s="3">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C61" s="15"/>
       <c r="D61" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="E61" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="E61" s="15" t="s">
+      <c r="F61" s="7"/>
+      <c r="G61" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="F61" s="7"/>
-      <c r="G61" s="15"/>
     </row>
     <row r="62" spans="2:7">
       <c r="B62" s="3">
-        <v>59</v>
-      </c>
-      <c r="C62" s="3"/>
-      <c r="D62" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C62" s="15"/>
+      <c r="D62" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="E62" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="F62" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G62" s="3"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="15"/>
     </row>
     <row r="63" spans="2:7">
       <c r="B63" s="3">
-        <v>60</v>
-      </c>
-      <c r="C63" s="3"/>
-      <c r="D63" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C63" s="15"/>
+      <c r="D63" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="E63" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="E63" s="3" t="s">
-        <v>127</v>
-      </c>
       <c r="F63" s="7"/>
-      <c r="G63" s="3"/>
+      <c r="G63" s="15"/>
     </row>
     <row r="64" spans="2:7">
       <c r="B64" s="3">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E64" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="F64" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F64" s="7"/>
       <c r="G64" s="3"/>
     </row>
     <row r="65" spans="2:7">
       <c r="B65" s="3">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="17" t="s">
@@ -2571,7 +2583,7 @@
     </row>
     <row r="66" spans="2:7">
       <c r="B66" s="3">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="17" t="s">
@@ -2585,7 +2597,7 @@
     </row>
     <row r="67" spans="2:7">
       <c r="B67" s="3">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="17" t="s">
@@ -2599,7 +2611,7 @@
     </row>
     <row r="68" spans="2:7">
       <c r="B68" s="3">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="17" t="s">
@@ -2613,7 +2625,7 @@
     </row>
     <row r="69" spans="2:7">
       <c r="B69" s="3">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="17" t="s">
@@ -2627,7 +2639,7 @@
     </row>
     <row r="70" spans="2:7">
       <c r="B70" s="3">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="17" t="s">
@@ -2641,7 +2653,7 @@
     </row>
     <row r="71" spans="2:7">
       <c r="B71" s="3">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="17" t="s">
@@ -2655,51 +2667,51 @@
     </row>
     <row r="72" spans="2:7">
       <c r="B72" s="3">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C72" s="3"/>
-      <c r="D72" s="18" t="s">
+      <c r="D72" s="17" t="s">
         <v>144</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="F72" s="11" t="s">
-        <v>146</v>
-      </c>
+      <c r="F72" s="7"/>
       <c r="G72" s="3"/>
     </row>
     <row r="73" spans="2:7">
       <c r="B73" s="3">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C73" s="3"/>
-      <c r="D73" s="18" t="s">
+      <c r="D73" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="E73" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="E73" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F73" s="12"/>
+      <c r="F73" s="7"/>
       <c r="G73" s="3"/>
     </row>
     <row r="74" spans="2:7">
       <c r="B74" s="3">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="E74" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="F74" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="F74" s="12"/>
       <c r="G74" s="3"/>
     </row>
     <row r="75" spans="2:7">
       <c r="B75" s="3">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="18" t="s">
@@ -2708,56 +2720,56 @@
       <c r="E75" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="F75" s="13"/>
+      <c r="F75" s="12"/>
       <c r="G75" s="3"/>
     </row>
     <row r="76" spans="2:7">
       <c r="B76" s="3">
-        <v>73</v>
-      </c>
-      <c r="C76" s="15"/>
-      <c r="D76" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C76" s="3"/>
+      <c r="D76" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="E76" s="15" t="s">
+      <c r="E76" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="F76" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="G76" s="15"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="3"/>
     </row>
     <row r="77" spans="2:7">
       <c r="B77" s="3">
-        <v>74</v>
-      </c>
-      <c r="C77" s="15"/>
-      <c r="D77" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C77" s="3"/>
+      <c r="D77" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="E77" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="E77" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="F77" s="12"/>
-      <c r="G77" s="15"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="3"/>
     </row>
     <row r="78" spans="2:7">
       <c r="B78" s="3">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C78" s="15"/>
       <c r="D78" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="E78" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="E78" s="15" t="s">
+      <c r="F78" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="F78" s="12"/>
       <c r="G78" s="15"/>
     </row>
     <row r="79" spans="2:7">
       <c r="B79" s="3">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C79" s="15"/>
       <c r="D79" s="19" t="s">
@@ -2771,7 +2783,7 @@
     </row>
     <row r="80" spans="2:7">
       <c r="B80" s="3">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C80" s="15"/>
       <c r="D80" s="19" t="s">
@@ -2785,7 +2797,7 @@
     </row>
     <row r="81" spans="2:7">
       <c r="B81" s="3">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C81" s="15"/>
       <c r="D81" s="19" t="s">
@@ -2794,21 +2806,49 @@
       <c r="E81" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="F81" s="13"/>
+      <c r="F81" s="12"/>
       <c r="G81" s="15"/>
+    </row>
+    <row r="82" spans="2:7">
+      <c r="B82" s="3">
+        <v>77</v>
+      </c>
+      <c r="C82" s="15"/>
+      <c r="D82" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="E82" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="F82" s="12"/>
+      <c r="G82" s="15"/>
+    </row>
+    <row r="83" spans="2:7">
+      <c r="B83" s="3">
+        <v>78</v>
+      </c>
+      <c r="C83" s="15"/>
+      <c r="D83" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="E83" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="F83" s="13"/>
+      <c r="G83" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="F4:F21"/>
-    <mergeCell ref="F22:F27"/>
-    <mergeCell ref="F28:F33"/>
-    <mergeCell ref="F34:F41"/>
-    <mergeCell ref="F42:F51"/>
-    <mergeCell ref="F52:F57"/>
-    <mergeCell ref="F58:F61"/>
-    <mergeCell ref="F62:F71"/>
-    <mergeCell ref="F72:F75"/>
-    <mergeCell ref="F76:F81"/>
+    <mergeCell ref="F22:F29"/>
+    <mergeCell ref="F30:F35"/>
+    <mergeCell ref="F36:F43"/>
+    <mergeCell ref="F44:F53"/>
+    <mergeCell ref="F54:F59"/>
+    <mergeCell ref="F60:F63"/>
+    <mergeCell ref="F64:F73"/>
+    <mergeCell ref="F74:F77"/>
+    <mergeCell ref="F78:F83"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/document/DSF 시퀀스.xlsx
+++ b/document/DSF 시퀀스.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="178">
   <si>
     <t>no</t>
   </si>
@@ -173,28 +173,28 @@
     <t>EventHostOutletTrayInputConfirm</t>
   </si>
   <si>
-    <t>Tray Break 요청 with TrayId</t>
-  </si>
-  <si>
-    <t>EventEqpTrayBreakRequest</t>
+    <t>배출 Tray Break 요청 with TrayId</t>
+  </si>
+  <si>
+    <t>EventEqpOutletTrayBreakRequest</t>
   </si>
   <si>
     <t>트레이 깨기 : 공트레이 만들기</t>
   </si>
   <si>
-    <t>Tray Break 요청 Confirm</t>
-  </si>
-  <si>
-    <t>EventHostTrayBreakConfirm</t>
-  </si>
-  <si>
-    <t>Tray Break 완료 요청</t>
+    <t>배출 Tray Break 요청 Confirm</t>
+  </si>
+  <si>
+    <t>EventHostOutletTrayBreakConfirm</t>
+  </si>
+  <si>
+    <t>배출 Tray Break 완료 요청</t>
   </si>
   <si>
     <t>EventEqpTrayBreakCompleteRequest</t>
   </si>
   <si>
-    <t>Tray Break 완료 요청 Confirm</t>
+    <t>배출 Tray Break 완료 요청 Confirm</t>
   </si>
   <si>
     <t>EventHostTrayBreakCompleteConfirm</t>
@@ -225,6 +225,30 @@
   </si>
   <si>
     <t>EventHostNGTrayInputConfirm</t>
+  </si>
+  <si>
+    <t>NG Tray Break 요청 with TrayId</t>
+  </si>
+  <si>
+    <t>EventEqpNGTrayBreakRequest</t>
+  </si>
+  <si>
+    <t>NG Tray Break 요청 Confirm</t>
+  </si>
+  <si>
+    <t>EventHostNGTrayBreakConfirm</t>
+  </si>
+  <si>
+    <t>NG Tray Break 완료 with TrayId</t>
+  </si>
+  <si>
+    <t>EventEqpNGTrayBreakCompleteRequest</t>
+  </si>
+  <si>
+    <t>NG Tray Break 완료 Confirm</t>
+  </si>
+  <si>
+    <t>EventHostNGTrayBreakCompleteConfirm</t>
   </si>
   <si>
     <t>NG Tray 투입 완료 요청</t>
@@ -1654,10 +1678,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B3:G83"/>
+  <dimension ref="B3:G85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -2009,7 +2033,7 @@
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="3">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="6" t="s">
@@ -2023,7 +2047,7 @@
     </row>
     <row r="27" spans="2:7">
       <c r="B27" s="3">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="6" t="s">
@@ -2037,7 +2061,7 @@
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="6" t="s">
@@ -2051,7 +2075,7 @@
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="3">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="6" t="s">
@@ -2065,7 +2089,7 @@
     </row>
     <row r="30" spans="2:7">
       <c r="B30" s="3">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="8" t="s">
@@ -2081,7 +2105,7 @@
     </row>
     <row r="31" spans="2:7">
       <c r="B31" s="3">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="8" t="s">
@@ -2095,760 +2119,788 @@
     </row>
     <row r="32" spans="2:7">
       <c r="B32" s="3">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="8" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="3"/>
     </row>
     <row r="33" spans="2:7">
       <c r="B33" s="3">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="8" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="3"/>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="3">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="8" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="3"/>
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="3">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="8" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="3"/>
     </row>
     <row r="36" spans="2:7">
       <c r="B36" s="3">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C36" s="3"/>
-      <c r="D36" s="9" t="s">
-        <v>70</v>
+      <c r="D36" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>72</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="F36" s="7"/>
       <c r="G36" s="3"/>
     </row>
     <row r="37" spans="2:7">
       <c r="B37" s="3">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C37" s="3"/>
-      <c r="D37" s="9" t="s">
-        <v>73</v>
+      <c r="D37" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="3"/>
     </row>
     <row r="38" spans="2:7">
       <c r="B38" s="3">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F38" s="7"/>
+        <v>79</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>80</v>
+      </c>
       <c r="G38" s="3"/>
     </row>
     <row r="39" spans="2:7">
       <c r="B39" s="3">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="9" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F39" s="7"/>
       <c r="G39" s="3"/>
     </row>
     <row r="40" spans="2:7">
       <c r="B40" s="3">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="9" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="3"/>
     </row>
     <row r="41" spans="2:7">
       <c r="B41" s="3">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="3"/>
     </row>
     <row r="42" spans="2:7">
       <c r="B42" s="3">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="9" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="3"/>
     </row>
     <row r="43" spans="2:7">
       <c r="B43" s="3">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="9" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="3"/>
     </row>
     <row r="44" spans="2:7">
       <c r="B44" s="3">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C44" s="3"/>
-      <c r="D44" s="10" t="s">
-        <v>87</v>
+      <c r="D44" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>89</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="F44" s="7"/>
       <c r="G44" s="3"/>
     </row>
     <row r="45" spans="2:7">
       <c r="B45" s="3">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C45" s="3"/>
-      <c r="D45" s="10" t="s">
-        <v>90</v>
+      <c r="D45" s="9" t="s">
+        <v>93</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F45" s="12"/>
+        <v>94</v>
+      </c>
+      <c r="F45" s="7"/>
       <c r="G45" s="3"/>
     </row>
     <row r="46" spans="2:7">
       <c r="B46" s="3">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F46" s="12"/>
+        <v>96</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>97</v>
+      </c>
       <c r="G46" s="3"/>
     </row>
     <row r="47" spans="2:7">
       <c r="B47" s="3">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E47" t="s">
-        <v>78</v>
+        <v>98</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="F47" s="12"/>
       <c r="G47" s="3"/>
     </row>
     <row r="48" spans="2:7">
       <c r="B48" s="3">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="10" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="F48" s="12"/>
       <c r="G48" s="3"/>
     </row>
     <row r="49" spans="2:7">
       <c r="B49" s="3">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>97</v>
+        <v>101</v>
+      </c>
+      <c r="E49" t="s">
+        <v>86</v>
       </c>
       <c r="F49" s="12"/>
       <c r="G49" s="3"/>
     </row>
     <row r="50" spans="2:7">
       <c r="B50" s="3">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="10" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="F50" s="12"/>
       <c r="G50" s="3"/>
     </row>
     <row r="51" spans="2:7">
       <c r="B51" s="3">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="10" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="F51" s="12"/>
       <c r="G51" s="3"/>
     </row>
     <row r="52" spans="2:7">
       <c r="B52" s="3">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="10" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="F52" s="12"/>
       <c r="G52" s="3"/>
     </row>
     <row r="53" spans="2:7">
       <c r="B53" s="3">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="10" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F53" s="13"/>
+        <v>30</v>
+      </c>
+      <c r="F53" s="12"/>
       <c r="G53" s="3"/>
     </row>
     <row r="54" spans="2:7">
       <c r="B54" s="3">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C54" s="3"/>
-      <c r="D54" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="E54" t="s">
-        <v>105</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>106</v>
-      </c>
+      <c r="D54" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F54" s="12"/>
       <c r="G54" s="3"/>
     </row>
     <row r="55" spans="2:7">
       <c r="B55" s="3">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="D55" s="14" t="s">
-        <v>107</v>
+      <c r="D55" s="10" t="s">
+        <v>110</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F55" s="7"/>
+        <v>111</v>
+      </c>
+      <c r="F55" s="13"/>
       <c r="G55" s="3"/>
     </row>
     <row r="56" spans="2:7">
       <c r="B56" s="3">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="F56" s="7"/>
+        <v>112</v>
+      </c>
+      <c r="E56" t="s">
+        <v>113</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="G56" s="3"/>
     </row>
     <row r="57" spans="2:7">
       <c r="B57" s="3">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="14" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F57" s="7"/>
       <c r="G57" s="3"/>
     </row>
     <row r="58" spans="2:7">
       <c r="B58" s="3">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="14" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F58" s="7"/>
       <c r="G58" s="3"/>
     </row>
     <row r="59" spans="2:7">
       <c r="B59" s="3">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="14" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F59" s="7"/>
       <c r="G59" s="3"/>
     </row>
     <row r="60" spans="2:7">
       <c r="B60" s="3">
-        <v>55</v>
-      </c>
-      <c r="C60" s="15"/>
-      <c r="D60" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="E60" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G60" s="15"/>
+        <v>57</v>
+      </c>
+      <c r="C60" s="3"/>
+      <c r="D60" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F60" s="7"/>
+      <c r="G60" s="3"/>
     </row>
     <row r="61" spans="2:7">
       <c r="B61" s="3">
-        <v>56</v>
-      </c>
-      <c r="C61" s="15"/>
-      <c r="D61" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="E61" s="15" t="s">
-        <v>121</v>
+        <v>58</v>
+      </c>
+      <c r="C61" s="3"/>
+      <c r="D61" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="F61" s="7"/>
-      <c r="G61" s="15" t="s">
-        <v>122</v>
-      </c>
+      <c r="G61" s="3"/>
     </row>
     <row r="62" spans="2:7">
       <c r="B62" s="3">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C62" s="15"/>
       <c r="D62" s="16" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="F62" s="7"/>
+        <v>126</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>127</v>
+      </c>
       <c r="G62" s="15"/>
     </row>
     <row r="63" spans="2:7">
       <c r="B63" s="3">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C63" s="15"/>
       <c r="D63" s="16" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F63" s="7"/>
-      <c r="G63" s="15"/>
+      <c r="G63" s="15" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="64" spans="2:7">
       <c r="B64" s="3">
-        <v>59</v>
-      </c>
-      <c r="C64" s="3"/>
-      <c r="D64" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G64" s="3"/>
+        <v>61</v>
+      </c>
+      <c r="C64" s="15"/>
+      <c r="D64" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="E64" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="F64" s="7"/>
+      <c r="G64" s="15"/>
     </row>
     <row r="65" spans="2:7">
       <c r="B65" s="3">
-        <v>60</v>
-      </c>
-      <c r="C65" s="3"/>
-      <c r="D65" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>131</v>
+        <v>62</v>
+      </c>
+      <c r="C65" s="15"/>
+      <c r="D65" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="E65" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="F65" s="7"/>
-      <c r="G65" s="3"/>
+      <c r="G65" s="15"/>
     </row>
     <row r="66" spans="2:7">
       <c r="B66" s="3">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="17" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F66" s="7"/>
+        <v>136</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>137</v>
+      </c>
       <c r="G66" s="3"/>
     </row>
     <row r="67" spans="2:7">
       <c r="B67" s="3">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="17" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F67" s="7"/>
       <c r="G67" s="3"/>
     </row>
     <row r="68" spans="2:7">
       <c r="B68" s="3">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="17" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F68" s="7"/>
       <c r="G68" s="3"/>
     </row>
     <row r="69" spans="2:7">
       <c r="B69" s="3">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="17" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F69" s="7"/>
       <c r="G69" s="3"/>
     </row>
     <row r="70" spans="2:7">
       <c r="B70" s="3">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="17" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F70" s="7"/>
       <c r="G70" s="3"/>
     </row>
     <row r="71" spans="2:7">
       <c r="B71" s="3">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F71" s="7"/>
       <c r="G71" s="3"/>
     </row>
     <row r="72" spans="2:7">
       <c r="B72" s="3">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="17" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F72" s="7"/>
       <c r="G72" s="3"/>
     </row>
     <row r="73" spans="2:7">
       <c r="B73" s="3">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="17" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F73" s="7"/>
       <c r="G73" s="3"/>
     </row>
     <row r="74" spans="2:7">
       <c r="B74" s="3">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C74" s="3"/>
-      <c r="D74" s="18" t="s">
-        <v>148</v>
+      <c r="D74" s="17" t="s">
+        <v>152</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="F74" s="11" t="s">
-        <v>150</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="F74" s="7"/>
       <c r="G74" s="3"/>
     </row>
     <row r="75" spans="2:7">
       <c r="B75" s="3">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C75" s="3"/>
-      <c r="D75" s="18" t="s">
-        <v>151</v>
+      <c r="D75" s="17" t="s">
+        <v>154</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="F75" s="12"/>
+        <v>155</v>
+      </c>
+      <c r="F75" s="7"/>
       <c r="G75" s="3"/>
     </row>
     <row r="76" spans="2:7">
       <c r="B76" s="3">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="18" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="F76" s="12"/>
+        <v>157</v>
+      </c>
+      <c r="F76" s="11" t="s">
+        <v>158</v>
+      </c>
       <c r="G76" s="3"/>
     </row>
     <row r="77" spans="2:7">
       <c r="B77" s="3">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="18" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="F77" s="13"/>
+        <v>160</v>
+      </c>
+      <c r="F77" s="12"/>
       <c r="G77" s="3"/>
     </row>
     <row r="78" spans="2:7">
       <c r="B78" s="3">
-        <v>73</v>
-      </c>
-      <c r="C78" s="15"/>
-      <c r="D78" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="E78" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="F78" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="G78" s="15"/>
+        <v>75</v>
+      </c>
+      <c r="C78" s="3"/>
+      <c r="D78" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F78" s="12"/>
+      <c r="G78" s="3"/>
     </row>
     <row r="79" spans="2:7">
       <c r="B79" s="3">
-        <v>74</v>
-      </c>
-      <c r="C79" s="15"/>
-      <c r="D79" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="E79" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="F79" s="12"/>
-      <c r="G79" s="15"/>
+        <v>76</v>
+      </c>
+      <c r="C79" s="3"/>
+      <c r="D79" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F79" s="13"/>
+      <c r="G79" s="3"/>
     </row>
     <row r="80" spans="2:7">
       <c r="B80" s="3">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C80" s="15"/>
       <c r="D80" s="19" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E80" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="F80" s="12"/>
+        <v>166</v>
+      </c>
+      <c r="F80" s="11" t="s">
+        <v>167</v>
+      </c>
       <c r="G80" s="15"/>
     </row>
     <row r="81" spans="2:7">
       <c r="B81" s="3">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C81" s="15"/>
       <c r="D81" s="19" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E81" s="15" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F81" s="12"/>
       <c r="G81" s="15"/>
     </row>
     <row r="82" spans="2:7">
       <c r="B82" s="3">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C82" s="15"/>
       <c r="D82" s="19" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E82" s="15" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F82" s="12"/>
       <c r="G82" s="15"/>
     </row>
     <row r="83" spans="2:7">
       <c r="B83" s="3">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C83" s="15"/>
       <c r="D83" s="19" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E83" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="F83" s="13"/>
+        <v>173</v>
+      </c>
+      <c r="F83" s="12"/>
       <c r="G83" s="15"/>
+    </row>
+    <row r="84" spans="2:7">
+      <c r="B84" s="3">
+        <v>81</v>
+      </c>
+      <c r="C84" s="15"/>
+      <c r="D84" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="E84" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="F84" s="12"/>
+      <c r="G84" s="15"/>
+    </row>
+    <row r="85" spans="2:7">
+      <c r="B85" s="3">
+        <v>82</v>
+      </c>
+      <c r="C85" s="15"/>
+      <c r="D85" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="E85" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="F85" s="13"/>
+      <c r="G85" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="F4:F21"/>
     <mergeCell ref="F22:F29"/>
-    <mergeCell ref="F30:F35"/>
-    <mergeCell ref="F36:F43"/>
-    <mergeCell ref="F44:F53"/>
-    <mergeCell ref="F54:F59"/>
-    <mergeCell ref="F60:F63"/>
-    <mergeCell ref="F64:F73"/>
-    <mergeCell ref="F74:F77"/>
-    <mergeCell ref="F78:F83"/>
+    <mergeCell ref="F30:F37"/>
+    <mergeCell ref="F38:F45"/>
+    <mergeCell ref="F46:F55"/>
+    <mergeCell ref="F56:F61"/>
+    <mergeCell ref="F62:F65"/>
+    <mergeCell ref="F66:F75"/>
+    <mergeCell ref="F76:F79"/>
+    <mergeCell ref="F80:F85"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/document/DSF 시퀀스.xlsx
+++ b/document/DSF 시퀀스.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="186">
   <si>
     <t>no</t>
   </si>
@@ -134,25 +134,25 @@
     <t>EventHostRackOutputConfirm</t>
   </si>
   <si>
-    <t>Rack 출고 완료 요청 with TrayId/RackId</t>
+    <t>Rack 출고 완료 보고 with TrayId/RackId</t>
   </si>
   <si>
     <t>EventEqpRackOutputCompleteRequest</t>
   </si>
   <si>
-    <t>Rack 출고 완료 요청 Confirm</t>
+    <t>Rack 출고 완료 보고 Confirm</t>
   </si>
   <si>
     <t>EventHostRackOutputCompleteConfirm</t>
   </si>
   <si>
-    <t>투입 Tray 투입 완료 요청</t>
+    <t>투입 Tray 투입 완료 보고</t>
   </si>
   <si>
     <t>EventEqpInletTrayInputCompleteRequest</t>
   </si>
   <si>
-    <t>투입 Tray 투입 완료 요청 Confirm</t>
+    <t>투입 Tray 투입 완료 보고 Confirm</t>
   </si>
   <si>
     <t>EventHostInletTrayInputCompleteConfirm</t>
@@ -200,13 +200,13 @@
     <t>EventHostTrayBreakCompleteConfirm</t>
   </si>
   <si>
-    <t>배출 Tray 투입 완료 요청</t>
+    <t>배출 Tray 투입 완료 보고</t>
   </si>
   <si>
     <t>EventEqpOutletTrayInputCompleteRequest</t>
   </si>
   <si>
-    <t>배출 Tray 투입 완료 요청 Confirm</t>
+    <t>배출 Tray 투입 완료 보고 Confirm</t>
   </si>
   <si>
     <t>EventHostOutletTrayInputCompleteConfirm</t>
@@ -239,31 +239,34 @@
     <t>EventHostNGTrayBreakConfirm</t>
   </si>
   <si>
-    <t>NG Tray Break 완료 with TrayId</t>
+    <t>NG Tray Break 완료 보고 with TrayId</t>
   </si>
   <si>
     <t>EventEqpNGTrayBreakCompleteRequest</t>
   </si>
   <si>
-    <t>NG Tray Break 완료 Confirm</t>
+    <t>NG Tray Break 완료 보고 Confirm</t>
   </si>
   <si>
     <t>EventHostNGTrayBreakCompleteConfirm</t>
   </si>
   <si>
-    <t>NG Tray 투입 완료 요청</t>
+    <t>NG Tray 투입 완료 보고</t>
   </si>
   <si>
     <t>EventEqpNGTrayInputCompleteRequest</t>
   </si>
   <si>
-    <t>NG Tray 투입 완료 요청 Confirm</t>
+    <t>NG Tray 투입 완료 보고 Confirm</t>
   </si>
   <si>
     <t>EventHostNGTrayInputCompleteConfirm</t>
   </si>
   <si>
-    <t>[분기1 - 자동 투입] 자동 셀 투입 요청 with CellID</t>
+    <t>35_1_1</t>
+  </si>
+  <si>
+    <t>[분기1 - 자동 투입] 자동 셀 투입 요청 with CellID &amp; TrayID</t>
   </si>
   <si>
     <t>EventEqpAutoCellInputRequest</t>
@@ -272,42 +275,63 @@
     <t>분기1 - 자동 투입</t>
   </si>
   <si>
+    <t>35_1_2</t>
+  </si>
+  <si>
     <t>[분기1 - 자동 투입] 자동 셀 투입 요청 Confirm</t>
   </si>
   <si>
     <t>EventHostAutoCellInputConfirm</t>
   </si>
   <si>
-    <t>[분기1 - 자동 투입] 투입셀 정보 검사 요청 with CellID</t>
+    <t>35_1_3</t>
+  </si>
+  <si>
+    <t>[분기1 - 자동 투입] 투입셀 정보 검사 요청 with CellID &amp; TrayID</t>
   </si>
   <si>
     <t>EventEqpInputCellInfoInspectionRequest</t>
   </si>
   <si>
+    <t>35_1_4</t>
+  </si>
+  <si>
     <t>[분기1 - 자동 투입] 투입셀 정보 검사 요청 Confirm</t>
   </si>
   <si>
     <t>EventHostInputCellInfoInspectionConfirm</t>
   </si>
   <si>
-    <t>[분기1 - 자동 투입] 셀 공정 시작 보고</t>
+    <t>35_1_5</t>
+  </si>
+  <si>
+    <t>[분기1 - 자동 투입] 셀 공정 시작 보고 with CellID</t>
   </si>
   <si>
     <t>EventEqpCellProcessStartReport</t>
   </si>
   <si>
+    <t>35_1_6</t>
+  </si>
+  <si>
     <t>[분기1 - 자동 투입] 셀 공정 시작 보고 Confirm</t>
   </si>
   <si>
     <t>EventHostCellProcessStartConfirm</t>
   </si>
   <si>
-    <t xml:space="preserve">[분기1 - 자동 투입] 자동 셀 투입 완료보고 </t>
+    <t>35_1_7</t>
+  </si>
+  <si>
+    <t>[분기1 - 자동 투입] 자동 셀 투입 완료보고 with CellID &amp; TrayID</t>
   </si>
   <si>
     <t>EventEqpAutoCellInputCompleteReport</t>
   </si>
   <si>
+    <t>35_1_8</t>
+  </si>
+  <si>
     <t>[분기1 - 자동 투입] 자동 셀 투입 완료보고 Confirm</t>
   </si>
   <si>
@@ -329,7 +353,7 @@
     <t>EventHostManualCellInputConfirm</t>
   </si>
   <si>
-    <t>[분기2 - 수동 투입] 투입셀 정보 검사 요청 with CellID</t>
+    <t>[분기2 - 수동 투입] 투입셀 정보 검사 요청 with CellID &amp; TrayID</t>
   </si>
   <si>
     <t>[분기2 - 수동 투입] 투입셀 정보 검사 요청 Confirm</t>
@@ -1680,8 +1704,8 @@
   <sheetPr/>
   <dimension ref="B3:G85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -2202,115 +2226,115 @@
       <c r="G37" s="3"/>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="3">
-        <v>35</v>
+      <c r="B38" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G38" s="3"/>
     </row>
     <row r="39" spans="2:7">
-      <c r="B39" s="3">
-        <v>36</v>
+      <c r="B39" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F39" s="7"/>
       <c r="G39" s="3"/>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="3">
-        <v>37</v>
+      <c r="B40" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="9" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="3"/>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="3">
-        <v>38</v>
+      <c r="B41" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="9" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="3"/>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="3">
-        <v>39</v>
+      <c r="B42" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="9" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="3"/>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="3">
-        <v>40</v>
+      <c r="B43" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="9" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="3"/>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="3">
-        <v>41</v>
+      <c r="B44" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="9" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F44" s="7"/>
       <c r="G44" s="3"/>
     </row>
     <row r="45" spans="2:7">
-      <c r="B45" s="3">
-        <v>42</v>
+      <c r="B45" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F45" s="7"/>
       <c r="G45" s="3"/>
@@ -2321,13 +2345,13 @@
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="10" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="G46" s="3"/>
     </row>
@@ -2337,10 +2361,10 @@
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="10" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="F47" s="12"/>
       <c r="G47" s="3"/>
@@ -2351,10 +2375,10 @@
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="10" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F48" s="12"/>
       <c r="G48" s="3"/>
@@ -2365,10 +2389,10 @@
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="10" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E49" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F49" s="12"/>
       <c r="G49" s="3"/>
@@ -2379,10 +2403,10 @@
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="10" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="F50" s="12"/>
       <c r="G50" s="3"/>
@@ -2393,10 +2417,10 @@
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="10" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F51" s="12"/>
       <c r="G51" s="3"/>
@@ -2407,7 +2431,7 @@
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="10" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>28</v>
@@ -2421,7 +2445,7 @@
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="10" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>30</v>
@@ -2435,10 +2459,10 @@
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="10" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="F54" s="12"/>
       <c r="G54" s="3"/>
@@ -2449,10 +2473,10 @@
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="10" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="F55" s="13"/>
       <c r="G55" s="3"/>
@@ -2463,13 +2487,13 @@
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="14" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E56" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="G56" s="3"/>
     </row>
@@ -2479,10 +2503,10 @@
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="14" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="F57" s="7"/>
       <c r="G57" s="3"/>
@@ -2493,10 +2517,10 @@
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="14" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="F58" s="7"/>
       <c r="G58" s="3"/>
@@ -2507,10 +2531,10 @@
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="14" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="F59" s="7"/>
       <c r="G59" s="3"/>
@@ -2521,10 +2545,10 @@
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="14" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="F60" s="7"/>
       <c r="G60" s="3"/>
@@ -2535,10 +2559,10 @@
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="14" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="F61" s="7"/>
       <c r="G61" s="3"/>
@@ -2549,13 +2573,13 @@
       </c>
       <c r="C62" s="15"/>
       <c r="D62" s="16" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="G62" s="15"/>
     </row>
@@ -2565,14 +2589,14 @@
       </c>
       <c r="C63" s="15"/>
       <c r="D63" s="16" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="F63" s="7"/>
       <c r="G63" s="15" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="64" spans="2:7">
@@ -2581,10 +2605,10 @@
       </c>
       <c r="C64" s="15"/>
       <c r="D64" s="16" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="F64" s="7"/>
       <c r="G64" s="15"/>
@@ -2595,10 +2619,10 @@
       </c>
       <c r="C65" s="15"/>
       <c r="D65" s="16" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="F65" s="7"/>
       <c r="G65" s="15"/>
@@ -2609,13 +2633,13 @@
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="17" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="G66" s="3"/>
     </row>
@@ -2625,10 +2649,10 @@
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="17" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="F67" s="7"/>
       <c r="G67" s="3"/>
@@ -2639,10 +2663,10 @@
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="17" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="F68" s="7"/>
       <c r="G68" s="3"/>
@@ -2653,10 +2677,10 @@
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="17" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="F69" s="7"/>
       <c r="G69" s="3"/>
@@ -2667,10 +2691,10 @@
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="17" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="F70" s="7"/>
       <c r="G70" s="3"/>
@@ -2681,10 +2705,10 @@
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="17" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="F71" s="7"/>
       <c r="G71" s="3"/>
@@ -2695,10 +2719,10 @@
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="17" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="F72" s="7"/>
       <c r="G72" s="3"/>
@@ -2709,10 +2733,10 @@
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="17" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F73" s="7"/>
       <c r="G73" s="3"/>
@@ -2723,10 +2747,10 @@
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="17" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="F74" s="7"/>
       <c r="G74" s="3"/>
@@ -2737,10 +2761,10 @@
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="17" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F75" s="7"/>
       <c r="G75" s="3"/>
@@ -2751,13 +2775,13 @@
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="18" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="F76" s="11" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="G76" s="3"/>
     </row>
@@ -2767,10 +2791,10 @@
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="18" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="F77" s="12"/>
       <c r="G77" s="3"/>
@@ -2781,10 +2805,10 @@
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="18" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="F78" s="12"/>
       <c r="G78" s="3"/>
@@ -2795,10 +2819,10 @@
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="18" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="F79" s="13"/>
       <c r="G79" s="3"/>
@@ -2809,13 +2833,13 @@
       </c>
       <c r="C80" s="15"/>
       <c r="D80" s="19" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="E80" s="15" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="F80" s="11" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="G80" s="15"/>
     </row>
@@ -2825,10 +2849,10 @@
       </c>
       <c r="C81" s="15"/>
       <c r="D81" s="19" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="E81" s="15" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="F81" s="12"/>
       <c r="G81" s="15"/>
@@ -2839,10 +2863,10 @@
       </c>
       <c r="C82" s="15"/>
       <c r="D82" s="19" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="E82" s="15" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="F82" s="12"/>
       <c r="G82" s="15"/>
@@ -2853,10 +2877,10 @@
       </c>
       <c r="C83" s="15"/>
       <c r="D83" s="19" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="E83" s="15" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="F83" s="12"/>
       <c r="G83" s="15"/>
@@ -2867,10 +2891,10 @@
       </c>
       <c r="C84" s="15"/>
       <c r="D84" s="19" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="E84" s="15" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="F84" s="12"/>
       <c r="G84" s="15"/>
@@ -2881,10 +2905,10 @@
       </c>
       <c r="C85" s="15"/>
       <c r="D85" s="19" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="E85" s="15" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="F85" s="13"/>
       <c r="G85" s="15"/>

--- a/document/DSF 시퀀스.xlsx
+++ b/document/DSF 시퀀스.xlsx
@@ -110,6 +110,18 @@
     <t>EventHostCellsInfoCofirm</t>
   </si>
   <si>
+    <t>투입 Tray 투입 완료 보고</t>
+  </si>
+  <si>
+    <t>EventEqpInletTrayInputCompleteRequest</t>
+  </si>
+  <si>
+    <t>투입 Tray 투입 완료 보고 Confirm</t>
+  </si>
+  <si>
+    <t>EventHostInletTrayInputCompleteConfirm</t>
+  </si>
+  <si>
     <t>Recipe 요청 with TrayId</t>
   </si>
   <si>
@@ -146,18 +158,6 @@
     <t>EventHostRackOutputCompleteConfirm</t>
   </si>
   <si>
-    <t>투입 Tray 투입 완료 보고</t>
-  </si>
-  <si>
-    <t>EventEqpInletTrayInputCompleteRequest</t>
-  </si>
-  <si>
-    <t>투입 Tray 투입 완료 보고 Confirm</t>
-  </si>
-  <si>
-    <t>EventHostInletTrayInputCompleteConfirm</t>
-  </si>
-  <si>
     <t>배출 Tray 투입 요청 with TrayID</t>
   </si>
   <si>
@@ -533,7 +533,7 @@
     <t>EventEqpOutletTrayInfoRequest</t>
   </si>
   <si>
-    <t>배출 Tray 정보 확인 요청 confirm</t>
+    <t>배출 Tray 정보 확인 요청 Confirm</t>
   </si>
   <si>
     <t>EventHostOutletTrayInfoConfirm</t>
@@ -602,7 +602,7 @@
     <t>EventHostNGTrayOutputCompleteConfirm</t>
   </si>
   <si>
-    <t>셀 강제배출 요청 With CellId &amp; Status</t>
+    <t>셀 강제배출 요청 With CellId</t>
   </si>
   <si>
     <t>EventEqpCellForceOutputRequest</t>
@@ -1758,8 +1758,8 @@
   <sheetPr/>
   <dimension ref="B3:G89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -2488,7 +2488,7 @@
         <v>121</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F52" s="12"/>
       <c r="G52" s="3"/>
@@ -2502,7 +2502,7 @@
         <v>123</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F53" s="12"/>
       <c r="G53" s="3"/>
@@ -2516,7 +2516,7 @@
         <v>125</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F54" s="12"/>
       <c r="G54" s="3"/>
@@ -2530,7 +2530,7 @@
         <v>127</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F55" s="12"/>
       <c r="G55" s="3"/>
@@ -2544,7 +2544,7 @@
         <v>129</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F56" s="12"/>
       <c r="G56" s="3"/>
@@ -2558,7 +2558,7 @@
         <v>131</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F57" s="12"/>
       <c r="G57" s="3"/>

--- a/document/DSF 시퀀스.xlsx
+++ b/document/DSF 시퀀스.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29870" windowHeight="13280"/>
+    <workbookView windowWidth="29870" windowHeight="13280" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="DSF Sequence" sheetId="1" r:id="rId1"/>
+    <sheet name="공정로직" sheetId="1" r:id="rId1"/>
+    <sheet name="설비관리" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="230">
   <si>
     <t>no</t>
   </si>
@@ -639,6 +640,84 @@
   </si>
   <si>
     <t>EventHostCellForceOutputCompleteConfirm</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>EQPAlarm</t>
+  </si>
+  <si>
+    <t>EQP 알람 상태 Report</t>
+  </si>
+  <si>
+    <t>EventEqpAlarmStateReport</t>
+  </si>
+  <si>
+    <t>Host 알람 Response</t>
+  </si>
+  <si>
+    <t>EventHostAlarmResponse</t>
+  </si>
+  <si>
+    <t>FireStatus</t>
+  </si>
+  <si>
+    <t>EQP 화재 여부 Report</t>
+  </si>
+  <si>
+    <t>EventEqpFireStatusReport</t>
+  </si>
+  <si>
+    <t>Host EQP 화재 여부 Response</t>
+  </si>
+  <si>
+    <t>EventHostFireStatusResponse</t>
+  </si>
+  <si>
+    <t>Pause</t>
+  </si>
+  <si>
+    <t>EQP 정지 상태 Report</t>
+  </si>
+  <si>
+    <t>EventEqpPauseStateReport</t>
+  </si>
+  <si>
+    <t>Host EQP 정지상태 Response</t>
+  </si>
+  <si>
+    <t>EventHostPauseStateResponse</t>
+  </si>
+  <si>
+    <t>Manual</t>
+  </si>
+  <si>
+    <t>EQP 수동 모드 상태 Report</t>
+  </si>
+  <si>
+    <t>EventEqpManualStateReport</t>
+  </si>
+  <si>
+    <t>Host EQP 수동 모드 상태 Response</t>
+  </si>
+  <si>
+    <t>EventHostManualStateResponse</t>
+  </si>
+  <si>
+    <t>Autowait</t>
+  </si>
+  <si>
+    <t>EQP 자동 대기 모드 Report</t>
+  </si>
+  <si>
+    <t>EventEqpAutowaitStateReport</t>
+  </si>
+  <si>
+    <t>Host EQP 자동 대기 모드 Response</t>
+  </si>
+  <si>
+    <t>EventHostAutowaitStateResponse</t>
   </si>
 </sst>
 </file>
@@ -651,13 +730,19 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Noto Sans KR"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1211,210 +1296,243 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1758,8 +1876,8 @@
   <sheetPr/>
   <dimension ref="B3:G89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="D84" sqref="D84"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30:F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -1771,7 +1889,7 @@
     <col min="7" max="7" width="80.3363636363636" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7">
+    <row r="3" ht="18.5" spans="2:7">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1784,1244 +1902,1244 @@
       <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
-      <c r="B4" s="3">
+    <row r="4" ht="18.5" spans="2:7">
+      <c r="B4" s="8">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="B5" s="3">
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" ht="18.5" spans="2:7">
+      <c r="B5" s="8">
         <v>2</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="2:7">
-      <c r="B6" s="3">
+      <c r="F5" s="12"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" ht="18.5" spans="2:7">
+      <c r="B6" s="8">
         <v>3</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4" t="s">
+      <c r="C6" s="8"/>
+      <c r="D6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="3">
+      <c r="F6" s="12"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" ht="18.5" spans="2:7">
+      <c r="B7" s="8">
         <v>4</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4" t="s">
+      <c r="C7" s="8"/>
+      <c r="D7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="3">
+      <c r="F7" s="12"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" ht="18.5" spans="2:7">
+      <c r="B8" s="8">
         <v>5</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4" t="s">
+      <c r="C8" s="8"/>
+      <c r="D8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="2:7">
-      <c r="B9" s="3">
+      <c r="F8" s="12"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" ht="18.5" spans="2:7">
+      <c r="B9" s="8">
         <v>6</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4" t="s">
+      <c r="C9" s="8"/>
+      <c r="D9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="2:7">
-      <c r="B10" s="3">
+      <c r="F9" s="12"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" ht="18.5" spans="2:7">
+      <c r="B10" s="8">
         <v>7</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4" t="s">
+      <c r="C10" s="8"/>
+      <c r="D10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="2:7">
-      <c r="B11" s="3">
+      <c r="F10" s="12"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" ht="18.5" spans="2:7">
+      <c r="B11" s="8">
         <v>8</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4" t="s">
+      <c r="C11" s="8"/>
+      <c r="D11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="2:7">
-      <c r="B12" s="3">
+      <c r="F11" s="12"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" ht="18.5" spans="2:7">
+      <c r="B12" s="8">
         <v>9</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="4" t="s">
+      <c r="C12" s="8"/>
+      <c r="D12" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="2:7">
-      <c r="B13" s="3">
+      <c r="F12" s="12"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" ht="18.5" spans="2:7">
+      <c r="B13" s="8">
         <v>10</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4" t="s">
+      <c r="C13" s="8"/>
+      <c r="D13" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="2:7">
-      <c r="B14" s="3">
+      <c r="F13" s="12"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" ht="18.5" spans="2:7">
+      <c r="B14" s="8">
         <v>11</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="4" t="s">
+      <c r="C14" s="8"/>
+      <c r="D14" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="2:7">
-      <c r="B15" s="3">
+      <c r="F14" s="12"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" ht="18.5" spans="2:7">
+      <c r="B15" s="8">
         <v>12</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="4" t="s">
+      <c r="C15" s="8"/>
+      <c r="D15" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="2:7">
-      <c r="B16" s="3">
+      <c r="F15" s="12"/>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" ht="18.5" spans="2:7">
+      <c r="B16" s="8">
         <v>13</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="4" t="s">
+      <c r="C16" s="8"/>
+      <c r="D16" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="3">
+      <c r="F16" s="12"/>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" ht="18.5" spans="2:7">
+      <c r="B17" s="8">
         <v>14</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="4" t="s">
+      <c r="C17" s="8"/>
+      <c r="D17" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="3">
+      <c r="F17" s="12"/>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" ht="18.5" spans="2:7">
+      <c r="B18" s="8">
         <v>15</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="4" t="s">
+      <c r="C18" s="8"/>
+      <c r="D18" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="3">
+      <c r="F18" s="12"/>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" ht="18.5" spans="2:7">
+      <c r="B19" s="8">
         <v>16</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="4" t="s">
+      <c r="C19" s="8"/>
+      <c r="D19" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="3">
+      <c r="F19" s="12"/>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" ht="18.5" spans="2:7">
+      <c r="B20" s="8">
         <v>17</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="4" t="s">
+      <c r="C20" s="8"/>
+      <c r="D20" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="3">
+      <c r="F20" s="12"/>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" ht="18.5" spans="2:7">
+      <c r="B21" s="8">
         <v>18</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="4" t="s">
+      <c r="C21" s="8"/>
+      <c r="D21" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="2:7">
-      <c r="B22" s="3">
+      <c r="F21" s="12"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" ht="18.5" spans="2:7">
+      <c r="B22" s="8">
         <v>19</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="6" t="s">
+      <c r="C22" s="8"/>
+      <c r="D22" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="2:7">
-      <c r="B23" s="3">
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" ht="18.5" spans="2:7">
+      <c r="B23" s="8">
         <v>20</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="6" t="s">
+      <c r="C23" s="8"/>
+      <c r="D23" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="2:7">
-      <c r="B24" s="3">
+      <c r="F23" s="15"/>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" ht="18.5" spans="2:7">
+      <c r="B24" s="8">
         <v>21</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="6" t="s">
+      <c r="C24" s="8"/>
+      <c r="D24" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="3" t="s">
+      <c r="F24" s="15"/>
+      <c r="G24" s="9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="2:7">
-      <c r="B25" s="3">
+    <row r="25" ht="18.5" spans="2:7">
+      <c r="B25" s="8">
         <v>22</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="6" t="s">
+      <c r="C25" s="8"/>
+      <c r="D25" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="3" t="s">
+      <c r="F25" s="15"/>
+      <c r="G25" s="9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="2:7">
-      <c r="B26" s="3">
+    <row r="26" ht="18.5" spans="2:7">
+      <c r="B26" s="8">
         <v>23</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="6" t="s">
+      <c r="C26" s="8"/>
+      <c r="D26" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="2:7">
-      <c r="B27" s="3">
+      <c r="F26" s="15"/>
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" ht="18.5" spans="2:7">
+      <c r="B27" s="8">
         <v>24</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="6" t="s">
+      <c r="C27" s="8"/>
+      <c r="D27" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="2:7">
-      <c r="B28" s="3">
+      <c r="F27" s="15"/>
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" ht="18.5" spans="2:7">
+      <c r="B28" s="8">
         <v>25</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="6" t="s">
+      <c r="C28" s="8"/>
+      <c r="D28" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="2:7">
-      <c r="B29" s="3">
+      <c r="F28" s="15"/>
+      <c r="G28" s="8"/>
+    </row>
+    <row r="29" ht="18.5" spans="2:7">
+      <c r="B29" s="8">
         <v>26</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="6" t="s">
+      <c r="C29" s="8"/>
+      <c r="D29" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="2:7">
-      <c r="B30" s="3">
+      <c r="F29" s="15"/>
+      <c r="G29" s="8"/>
+    </row>
+    <row r="30" ht="18.5" spans="2:7">
+      <c r="B30" s="8">
         <v>27</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="8" t="s">
+      <c r="C30" s="8"/>
+      <c r="D30" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="2:7">
-      <c r="B31" s="3">
+      <c r="G30" s="8"/>
+    </row>
+    <row r="31" ht="18.5" spans="2:7">
+      <c r="B31" s="8">
         <v>28</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="8" t="s">
+      <c r="C31" s="8"/>
+      <c r="D31" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="2:7">
-      <c r="B32" s="3">
+      <c r="F31" s="15"/>
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" ht="18.5" spans="2:7">
+      <c r="B32" s="8">
         <v>29</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="8" t="s">
+      <c r="C32" s="8"/>
+      <c r="D32" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="F32" s="7"/>
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="2:7">
-      <c r="B33" s="3">
+      <c r="F32" s="15"/>
+      <c r="G32" s="8"/>
+    </row>
+    <row r="33" ht="18.5" spans="2:7">
+      <c r="B33" s="8">
         <v>30</v>
       </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="8" t="s">
+      <c r="C33" s="8"/>
+      <c r="D33" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F33" s="7"/>
-      <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="2:7">
-      <c r="B34" s="3">
+      <c r="F33" s="15"/>
+      <c r="G33" s="8"/>
+    </row>
+    <row r="34" ht="18.5" spans="2:7">
+      <c r="B34" s="8">
         <v>31</v>
       </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="8" t="s">
+      <c r="C34" s="8"/>
+      <c r="D34" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F34" s="7"/>
-      <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="2:7">
-      <c r="B35" s="3">
+      <c r="F34" s="15"/>
+      <c r="G34" s="8"/>
+    </row>
+    <row r="35" ht="18.5" spans="2:7">
+      <c r="B35" s="8">
         <v>32</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="8" t="s">
+      <c r="C35" s="8"/>
+      <c r="D35" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F35" s="7"/>
-      <c r="G35" s="3"/>
-    </row>
-    <row r="36" spans="2:7">
-      <c r="B36" s="3">
+      <c r="F35" s="15"/>
+      <c r="G35" s="8"/>
+    </row>
+    <row r="36" ht="18.5" spans="2:7">
+      <c r="B36" s="8">
         <v>33</v>
       </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="8" t="s">
+      <c r="C36" s="8"/>
+      <c r="D36" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="F36" s="7"/>
-      <c r="G36" s="3"/>
-    </row>
-    <row r="37" spans="2:7">
-      <c r="B37" s="3">
+      <c r="F36" s="15"/>
+      <c r="G36" s="8"/>
+    </row>
+    <row r="37" ht="18.5" spans="2:7">
+      <c r="B37" s="8">
         <v>34</v>
       </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="8" t="s">
+      <c r="C37" s="8"/>
+      <c r="D37" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F37" s="7"/>
-      <c r="G37" s="3"/>
-    </row>
-    <row r="38" spans="2:7">
-      <c r="B38" s="3" t="s">
+      <c r="F37" s="15"/>
+      <c r="G37" s="8"/>
+    </row>
+    <row r="38" ht="18.5" spans="2:7">
+      <c r="B38" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="9" t="s">
+      <c r="C38" s="8"/>
+      <c r="D38" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="F38" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="G38" s="3"/>
-    </row>
-    <row r="39" spans="2:7">
-      <c r="B39" s="3" t="s">
+      <c r="G38" s="8"/>
+    </row>
+    <row r="39" ht="18.5" spans="2:7">
+      <c r="B39" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="9" t="s">
+      <c r="C39" s="8"/>
+      <c r="D39" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F39" s="7"/>
-      <c r="G39" s="3"/>
-    </row>
-    <row r="40" spans="2:7">
-      <c r="B40" s="3" t="s">
+      <c r="F39" s="15"/>
+      <c r="G39" s="8"/>
+    </row>
+    <row r="40" ht="18.5" spans="2:7">
+      <c r="B40" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="9" t="s">
+      <c r="C40" s="8"/>
+      <c r="D40" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F40" s="7"/>
-      <c r="G40" s="3"/>
-    </row>
-    <row r="41" spans="2:7">
-      <c r="B41" s="3" t="s">
+      <c r="F40" s="15"/>
+      <c r="G40" s="8"/>
+    </row>
+    <row r="41" ht="18.5" spans="2:7">
+      <c r="B41" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="9" t="s">
+      <c r="C41" s="8"/>
+      <c r="D41" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F41" s="7"/>
-      <c r="G41" s="3"/>
-    </row>
-    <row r="42" spans="2:7">
-      <c r="B42" s="3" t="s">
+      <c r="F41" s="15"/>
+      <c r="G41" s="8"/>
+    </row>
+    <row r="42" ht="18.5" spans="2:7">
+      <c r="B42" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="9" t="s">
+      <c r="C42" s="8"/>
+      <c r="D42" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E42" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="F42" s="7"/>
-      <c r="G42" s="3"/>
-    </row>
-    <row r="43" spans="2:7">
-      <c r="B43" s="3" t="s">
+      <c r="F42" s="15"/>
+      <c r="G42" s="8"/>
+    </row>
+    <row r="43" ht="18.5" spans="2:7">
+      <c r="B43" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="9" t="s">
+      <c r="C43" s="8"/>
+      <c r="D43" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E43" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="F43" s="7"/>
-      <c r="G43" s="3"/>
-    </row>
-    <row r="44" spans="2:7">
-      <c r="B44" s="3" t="s">
+      <c r="F43" s="15"/>
+      <c r="G43" s="8"/>
+    </row>
+    <row r="44" ht="18.5" spans="2:7">
+      <c r="B44" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="9" t="s">
+      <c r="C44" s="8"/>
+      <c r="D44" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E44" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="F44" s="7"/>
-      <c r="G44" s="3"/>
-    </row>
-    <row r="45" spans="2:7">
-      <c r="B45" s="3" t="s">
+      <c r="F44" s="15"/>
+      <c r="G44" s="8"/>
+    </row>
+    <row r="45" ht="18.5" spans="2:7">
+      <c r="B45" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="9" t="s">
+      <c r="C45" s="8"/>
+      <c r="D45" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E45" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="F45" s="7"/>
-      <c r="G45" s="3"/>
-    </row>
-    <row r="46" spans="2:7">
-      <c r="B46" s="3" t="s">
+      <c r="F45" s="15"/>
+      <c r="G45" s="8"/>
+    </row>
+    <row r="46" ht="18.5" spans="2:7">
+      <c r="B46" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="10" t="s">
+      <c r="C46" s="8"/>
+      <c r="D46" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E46" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F46" s="11" t="s">
+      <c r="F46" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="G46" s="3"/>
-    </row>
-    <row r="47" spans="2:7">
-      <c r="B47" s="3" t="s">
+      <c r="G46" s="8"/>
+    </row>
+    <row r="47" ht="18.5" spans="2:7">
+      <c r="B47" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="C47" s="3"/>
-      <c r="D47" s="10" t="s">
+      <c r="C47" s="8"/>
+      <c r="D47" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E47" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="F47" s="12"/>
-      <c r="G47" s="3"/>
-    </row>
-    <row r="48" spans="2:7">
-      <c r="B48" s="3" t="s">
+      <c r="F47" s="22"/>
+      <c r="G47" s="8"/>
+    </row>
+    <row r="48" ht="18.5" spans="2:7">
+      <c r="B48" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="10" t="s">
+      <c r="C48" s="8"/>
+      <c r="D48" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E48" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F48" s="12"/>
-      <c r="G48" s="3"/>
-    </row>
-    <row r="49" spans="2:7">
-      <c r="B49" s="3" t="s">
+      <c r="F48" s="22"/>
+      <c r="G48" s="8"/>
+    </row>
+    <row r="49" ht="18.5" spans="2:7">
+      <c r="B49" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="C49" s="3"/>
-      <c r="D49" s="10" t="s">
+      <c r="C49" s="8"/>
+      <c r="D49" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="F49" s="12"/>
-      <c r="G49" s="3"/>
-    </row>
-    <row r="50" spans="2:7">
-      <c r="B50" s="3" t="s">
+      <c r="F49" s="22"/>
+      <c r="G49" s="8"/>
+    </row>
+    <row r="50" ht="18.5" spans="2:7">
+      <c r="B50" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="10" t="s">
+      <c r="C50" s="8"/>
+      <c r="D50" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E50" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="F50" s="12"/>
-      <c r="G50" s="3"/>
-    </row>
-    <row r="51" spans="2:7">
-      <c r="B51" s="3" t="s">
+      <c r="F50" s="22"/>
+      <c r="G50" s="8"/>
+    </row>
+    <row r="51" ht="18.5" spans="2:7">
+      <c r="B51" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="C51" s="3"/>
-      <c r="D51" s="10" t="s">
+      <c r="C51" s="8"/>
+      <c r="D51" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="E51" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="F51" s="12"/>
-      <c r="G51" s="3"/>
-    </row>
-    <row r="52" spans="2:7">
-      <c r="B52" s="3" t="s">
+      <c r="F51" s="22"/>
+      <c r="G51" s="8"/>
+    </row>
+    <row r="52" ht="18.5" spans="2:7">
+      <c r="B52" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="C52" s="3"/>
-      <c r="D52" s="10" t="s">
+      <c r="C52" s="8"/>
+      <c r="D52" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="E52" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F52" s="12"/>
-      <c r="G52" s="3"/>
-    </row>
-    <row r="53" spans="2:7">
-      <c r="B53" s="3" t="s">
+      <c r="F52" s="22"/>
+      <c r="G52" s="8"/>
+    </row>
+    <row r="53" ht="18.5" spans="2:7">
+      <c r="B53" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C53" s="3"/>
-      <c r="D53" s="10" t="s">
+      <c r="C53" s="8"/>
+      <c r="D53" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="E53" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F53" s="12"/>
-      <c r="G53" s="3"/>
-    </row>
-    <row r="54" spans="2:7">
-      <c r="B54" s="3" t="s">
+      <c r="F53" s="22"/>
+      <c r="G53" s="8"/>
+    </row>
+    <row r="54" ht="18.5" spans="2:7">
+      <c r="B54" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="C54" s="3"/>
-      <c r="D54" s="10" t="s">
+      <c r="C54" s="8"/>
+      <c r="D54" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="E54" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F54" s="12"/>
-      <c r="G54" s="3"/>
-    </row>
-    <row r="55" spans="2:7">
-      <c r="B55" s="3" t="s">
+      <c r="F54" s="22"/>
+      <c r="G54" s="8"/>
+    </row>
+    <row r="55" ht="18.5" spans="2:7">
+      <c r="B55" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="C55" s="3"/>
-      <c r="D55" s="10" t="s">
+      <c r="C55" s="8"/>
+      <c r="D55" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="E55" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F55" s="12"/>
-      <c r="G55" s="3"/>
-    </row>
-    <row r="56" spans="2:7">
-      <c r="B56" s="3" t="s">
+      <c r="F55" s="22"/>
+      <c r="G55" s="8"/>
+    </row>
+    <row r="56" ht="18.5" spans="2:7">
+      <c r="B56" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="C56" s="3"/>
-      <c r="D56" s="10" t="s">
+      <c r="C56" s="8"/>
+      <c r="D56" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="E56" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F56" s="12"/>
-      <c r="G56" s="3"/>
-    </row>
-    <row r="57" spans="2:7">
-      <c r="B57" s="3" t="s">
+      <c r="F56" s="22"/>
+      <c r="G56" s="8"/>
+    </row>
+    <row r="57" ht="18.5" spans="2:7">
+      <c r="B57" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="C57" s="3"/>
-      <c r="D57" s="10" t="s">
+      <c r="C57" s="8"/>
+      <c r="D57" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="E57" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F57" s="12"/>
-      <c r="G57" s="3"/>
-    </row>
-    <row r="58" spans="2:7">
-      <c r="B58" s="3" t="s">
+      <c r="F57" s="22"/>
+      <c r="G57" s="8"/>
+    </row>
+    <row r="58" ht="18.5" spans="2:7">
+      <c r="B58" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="C58" s="3"/>
-      <c r="D58" s="10" t="s">
+      <c r="C58" s="8"/>
+      <c r="D58" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="E58" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="F58" s="12"/>
-      <c r="G58" s="3"/>
-    </row>
-    <row r="59" spans="2:7">
-      <c r="B59" s="3" t="s">
+      <c r="F58" s="22"/>
+      <c r="G58" s="8"/>
+    </row>
+    <row r="59" ht="18.5" spans="2:7">
+      <c r="B59" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="C59" s="3"/>
-      <c r="D59" s="10" t="s">
+      <c r="C59" s="8"/>
+      <c r="D59" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="E59" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="F59" s="13"/>
-      <c r="G59" s="3"/>
-    </row>
-    <row r="60" spans="2:7">
-      <c r="B60" s="3">
+      <c r="F59" s="23"/>
+      <c r="G59" s="8"/>
+    </row>
+    <row r="60" ht="18.5" spans="2:7">
+      <c r="B60" s="8">
         <v>36</v>
       </c>
-      <c r="C60" s="3"/>
-      <c r="D60" s="14" t="s">
+      <c r="C60" s="8"/>
+      <c r="D60" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="F60" s="7" t="s">
+      <c r="F60" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="G60" s="3"/>
-    </row>
-    <row r="61" spans="2:7">
-      <c r="B61" s="3">
+      <c r="G60" s="8"/>
+    </row>
+    <row r="61" ht="18.5" spans="2:7">
+      <c r="B61" s="8">
         <v>37</v>
       </c>
-      <c r="C61" s="3"/>
-      <c r="D61" s="14" t="s">
+      <c r="C61" s="8"/>
+      <c r="D61" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="E61" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="F61" s="7"/>
-      <c r="G61" s="3"/>
-    </row>
-    <row r="62" spans="2:7">
-      <c r="B62" s="3">
+      <c r="F61" s="15"/>
+      <c r="G61" s="8"/>
+    </row>
+    <row r="62" ht="18.5" spans="2:7">
+      <c r="B62" s="8">
         <v>38</v>
       </c>
-      <c r="C62" s="3"/>
-      <c r="D62" s="14" t="s">
+      <c r="C62" s="8"/>
+      <c r="D62" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="E62" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="F62" s="7"/>
-      <c r="G62" s="3"/>
-    </row>
-    <row r="63" spans="2:7">
-      <c r="B63" s="3">
+      <c r="F62" s="15"/>
+      <c r="G62" s="8"/>
+    </row>
+    <row r="63" ht="18.5" spans="2:7">
+      <c r="B63" s="8">
         <v>39</v>
       </c>
-      <c r="C63" s="3"/>
-      <c r="D63" s="14" t="s">
+      <c r="C63" s="8"/>
+      <c r="D63" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="E63" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="F63" s="7"/>
-      <c r="G63" s="3"/>
-    </row>
-    <row r="64" spans="2:7">
-      <c r="B64" s="3">
+      <c r="F63" s="15"/>
+      <c r="G63" s="8"/>
+    </row>
+    <row r="64" ht="18.5" spans="2:7">
+      <c r="B64" s="8">
         <v>40</v>
       </c>
-      <c r="C64" s="3"/>
-      <c r="D64" s="14" t="s">
+      <c r="C64" s="8"/>
+      <c r="D64" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="E64" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="F64" s="7"/>
-      <c r="G64" s="3"/>
-    </row>
-    <row r="65" spans="2:7">
-      <c r="B65" s="3">
+      <c r="F64" s="15"/>
+      <c r="G64" s="8"/>
+    </row>
+    <row r="65" ht="18.5" spans="2:7">
+      <c r="B65" s="8">
         <v>41</v>
       </c>
-      <c r="C65" s="3"/>
-      <c r="D65" s="14" t="s">
+      <c r="C65" s="8"/>
+      <c r="D65" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="E65" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="F65" s="7"/>
-      <c r="G65" s="3"/>
-    </row>
-    <row r="66" spans="2:7">
-      <c r="B66" s="3">
+      <c r="F65" s="15"/>
+      <c r="G65" s="8"/>
+    </row>
+    <row r="66" ht="18.5" spans="2:7">
+      <c r="B66" s="8">
         <v>42</v>
       </c>
-      <c r="C66" s="15"/>
-      <c r="D66" s="16" t="s">
+      <c r="C66" s="25"/>
+      <c r="D66" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="E66" s="15" t="s">
+      <c r="E66" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="F66" s="7" t="s">
+      <c r="F66" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="G66" s="15"/>
-    </row>
-    <row r="67" spans="2:7">
-      <c r="B67" s="3">
+      <c r="G66" s="25"/>
+    </row>
+    <row r="67" ht="18.5" spans="2:7">
+      <c r="B67" s="8">
         <v>43</v>
       </c>
-      <c r="C67" s="15"/>
-      <c r="D67" s="16" t="s">
+      <c r="C67" s="25"/>
+      <c r="D67" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="E67" s="15" t="s">
+      <c r="E67" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="F67" s="7"/>
-      <c r="G67" s="15" t="s">
+      <c r="F67" s="15"/>
+      <c r="G67" s="27" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="68" spans="2:7">
-      <c r="B68" s="3">
+    <row r="68" ht="18.5" spans="2:7">
+      <c r="B68" s="8">
         <v>44</v>
       </c>
-      <c r="C68" s="15"/>
-      <c r="D68" s="16" t="s">
+      <c r="C68" s="25"/>
+      <c r="D68" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="E68" s="15" t="s">
+      <c r="E68" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="F68" s="7"/>
-      <c r="G68" s="15"/>
-    </row>
-    <row r="69" spans="2:7">
-      <c r="B69" s="3">
+      <c r="F68" s="15"/>
+      <c r="G68" s="25"/>
+    </row>
+    <row r="69" ht="18.5" spans="2:7">
+      <c r="B69" s="8">
         <v>45</v>
       </c>
-      <c r="C69" s="15"/>
-      <c r="D69" s="16" t="s">
+      <c r="C69" s="25"/>
+      <c r="D69" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="E69" s="15" t="s">
+      <c r="E69" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="F69" s="7"/>
-      <c r="G69" s="15"/>
-    </row>
-    <row r="70" spans="2:7">
-      <c r="B70" s="3">
+      <c r="F69" s="15"/>
+      <c r="G69" s="25"/>
+    </row>
+    <row r="70" ht="18.5" spans="2:7">
+      <c r="B70" s="8">
         <v>46</v>
       </c>
-      <c r="C70" s="3"/>
-      <c r="D70" s="17" t="s">
+      <c r="C70" s="8"/>
+      <c r="D70" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="E70" s="3" t="s">
+      <c r="E70" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="F70" s="7" t="s">
+      <c r="F70" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="G70" s="3"/>
-    </row>
-    <row r="71" spans="2:7">
-      <c r="B71" s="3">
+      <c r="G70" s="8"/>
+    </row>
+    <row r="71" ht="18.5" spans="2:7">
+      <c r="B71" s="8">
         <v>47</v>
       </c>
-      <c r="C71" s="3"/>
-      <c r="D71" s="17" t="s">
+      <c r="C71" s="8"/>
+      <c r="D71" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="E71" s="3" t="s">
+      <c r="E71" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="F71" s="7"/>
-      <c r="G71" s="3"/>
-    </row>
-    <row r="72" spans="2:7">
-      <c r="B72" s="3">
+      <c r="F71" s="15"/>
+      <c r="G71" s="8"/>
+    </row>
+    <row r="72" ht="18.5" spans="2:7">
+      <c r="B72" s="8">
         <v>48</v>
       </c>
-      <c r="C72" s="3"/>
-      <c r="D72" s="17" t="s">
+      <c r="C72" s="8"/>
+      <c r="D72" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="E72" s="3" t="s">
+      <c r="E72" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="F72" s="7"/>
-      <c r="G72" s="3"/>
-    </row>
-    <row r="73" spans="2:7">
-      <c r="B73" s="3">
+      <c r="F72" s="15"/>
+      <c r="G72" s="8"/>
+    </row>
+    <row r="73" ht="18.5" spans="2:7">
+      <c r="B73" s="8">
         <v>49</v>
       </c>
-      <c r="C73" s="3"/>
-      <c r="D73" s="17" t="s">
+      <c r="C73" s="8"/>
+      <c r="D73" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="E73" s="3" t="s">
+      <c r="E73" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="F73" s="7"/>
-      <c r="G73" s="3"/>
-    </row>
-    <row r="74" spans="2:7">
-      <c r="B74" s="3">
+      <c r="F73" s="15"/>
+      <c r="G73" s="8"/>
+    </row>
+    <row r="74" ht="18.5" spans="2:7">
+      <c r="B74" s="8">
         <v>50</v>
       </c>
-      <c r="C74" s="3"/>
-      <c r="D74" s="17" t="s">
+      <c r="C74" s="8"/>
+      <c r="D74" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="E74" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="F74" s="7"/>
-      <c r="G74" s="3"/>
-    </row>
-    <row r="75" spans="2:7">
-      <c r="B75" s="3">
+      <c r="F74" s="15"/>
+      <c r="G74" s="8"/>
+    </row>
+    <row r="75" ht="18.5" spans="2:7">
+      <c r="B75" s="8">
         <v>51</v>
       </c>
-      <c r="C75" s="3"/>
-      <c r="D75" s="17" t="s">
+      <c r="C75" s="8"/>
+      <c r="D75" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="E75" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="F75" s="7"/>
-      <c r="G75" s="3"/>
-    </row>
-    <row r="76" spans="2:7">
-      <c r="B76" s="3">
+      <c r="F75" s="15"/>
+      <c r="G75" s="8"/>
+    </row>
+    <row r="76" ht="18.5" spans="2:7">
+      <c r="B76" s="8">
         <v>52</v>
       </c>
-      <c r="C76" s="3"/>
-      <c r="D76" s="17" t="s">
+      <c r="C76" s="8"/>
+      <c r="D76" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="E76" s="3" t="s">
+      <c r="E76" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="F76" s="7"/>
-      <c r="G76" s="3"/>
-    </row>
-    <row r="77" spans="2:7">
-      <c r="B77" s="3">
+      <c r="F76" s="15"/>
+      <c r="G76" s="8"/>
+    </row>
+    <row r="77" ht="18.5" spans="2:7">
+      <c r="B77" s="8">
         <v>53</v>
       </c>
-      <c r="C77" s="3"/>
-      <c r="D77" s="17" t="s">
+      <c r="C77" s="8"/>
+      <c r="D77" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="E77" s="3" t="s">
+      <c r="E77" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="F77" s="7"/>
-      <c r="G77" s="3"/>
-    </row>
-    <row r="78" spans="2:7">
-      <c r="B78" s="3">
+      <c r="F77" s="15"/>
+      <c r="G77" s="8"/>
+    </row>
+    <row r="78" ht="18.5" spans="2:7">
+      <c r="B78" s="8">
         <v>54</v>
       </c>
-      <c r="C78" s="3"/>
-      <c r="D78" s="17" t="s">
+      <c r="C78" s="8"/>
+      <c r="D78" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="E78" s="3" t="s">
+      <c r="E78" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="F78" s="7"/>
-      <c r="G78" s="3"/>
-    </row>
-    <row r="79" spans="2:7">
-      <c r="B79" s="3">
+      <c r="F78" s="15"/>
+      <c r="G78" s="8"/>
+    </row>
+    <row r="79" ht="18.5" spans="2:7">
+      <c r="B79" s="8">
         <v>55</v>
       </c>
-      <c r="C79" s="3"/>
-      <c r="D79" s="17" t="s">
+      <c r="C79" s="8"/>
+      <c r="D79" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="E79" s="3" t="s">
+      <c r="E79" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="F79" s="7"/>
-      <c r="G79" s="3"/>
-    </row>
-    <row r="80" spans="2:7">
-      <c r="B80" s="3">
+      <c r="F79" s="15"/>
+      <c r="G79" s="8"/>
+    </row>
+    <row r="80" ht="18.5" spans="2:7">
+      <c r="B80" s="8">
         <v>56</v>
       </c>
-      <c r="C80" s="3"/>
-      <c r="D80" s="18" t="s">
+      <c r="C80" s="8"/>
+      <c r="D80" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="E80" s="3" t="s">
+      <c r="E80" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="F80" s="11" t="s">
+      <c r="F80" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="G80" s="3"/>
-    </row>
-    <row r="81" spans="2:7">
-      <c r="B81" s="3">
+      <c r="G80" s="8"/>
+    </row>
+    <row r="81" ht="18.5" spans="2:7">
+      <c r="B81" s="8">
         <v>57</v>
       </c>
-      <c r="C81" s="3"/>
-      <c r="D81" s="18" t="s">
+      <c r="C81" s="8"/>
+      <c r="D81" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="E81" s="3" t="s">
+      <c r="E81" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="F81" s="12"/>
-      <c r="G81" s="3"/>
-    </row>
-    <row r="82" spans="2:7">
-      <c r="B82" s="3">
+      <c r="F81" s="22"/>
+      <c r="G81" s="8"/>
+    </row>
+    <row r="82" ht="18.5" spans="2:7">
+      <c r="B82" s="8">
         <v>58</v>
       </c>
-      <c r="C82" s="3"/>
-      <c r="D82" s="18" t="s">
+      <c r="C82" s="8"/>
+      <c r="D82" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="E82" s="3" t="s">
+      <c r="E82" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="F82" s="12"/>
-      <c r="G82" s="3"/>
-    </row>
-    <row r="83" spans="2:7">
-      <c r="B83" s="3">
+      <c r="F82" s="22"/>
+      <c r="G82" s="8"/>
+    </row>
+    <row r="83" ht="18.5" spans="2:7">
+      <c r="B83" s="8">
         <v>59</v>
       </c>
-      <c r="C83" s="3"/>
-      <c r="D83" s="18" t="s">
+      <c r="C83" s="8"/>
+      <c r="D83" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="E83" s="3" t="s">
+      <c r="E83" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="F83" s="13"/>
-      <c r="G83" s="3"/>
-    </row>
-    <row r="84" spans="2:7">
-      <c r="B84" s="3">
+      <c r="F83" s="23"/>
+      <c r="G83" s="8"/>
+    </row>
+    <row r="84" ht="18.5" spans="2:7">
+      <c r="B84" s="8">
         <v>60</v>
       </c>
-      <c r="C84" s="15"/>
-      <c r="D84" s="19" t="s">
+      <c r="C84" s="25"/>
+      <c r="D84" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="E84" s="15" t="s">
+      <c r="E84" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="F84" s="11" t="s">
+      <c r="F84" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="G84" s="15"/>
-    </row>
-    <row r="85" spans="2:7">
-      <c r="B85" s="3">
+      <c r="G84" s="25"/>
+    </row>
+    <row r="85" ht="18.5" spans="2:7">
+      <c r="B85" s="8">
         <v>61</v>
       </c>
-      <c r="C85" s="15"/>
-      <c r="D85" s="19" t="s">
+      <c r="C85" s="25"/>
+      <c r="D85" s="30" t="s">
         <v>194</v>
       </c>
-      <c r="E85" s="15" t="s">
+      <c r="E85" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="F85" s="12"/>
-      <c r="G85" s="15"/>
-    </row>
-    <row r="86" spans="2:7">
-      <c r="B86" s="3">
+      <c r="F85" s="22"/>
+      <c r="G85" s="25"/>
+    </row>
+    <row r="86" ht="18.5" spans="2:7">
+      <c r="B86" s="8">
         <v>62</v>
       </c>
-      <c r="C86" s="15"/>
-      <c r="D86" s="19" t="s">
+      <c r="C86" s="25"/>
+      <c r="D86" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="E86" s="15" t="s">
+      <c r="E86" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="F86" s="12"/>
-      <c r="G86" s="15"/>
-    </row>
-    <row r="87" spans="2:7">
-      <c r="B87" s="3">
+      <c r="F86" s="22"/>
+      <c r="G86" s="25"/>
+    </row>
+    <row r="87" ht="18.5" spans="2:7">
+      <c r="B87" s="8">
         <v>63</v>
       </c>
-      <c r="C87" s="15"/>
-      <c r="D87" s="19" t="s">
+      <c r="C87" s="25"/>
+      <c r="D87" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="E87" s="15" t="s">
+      <c r="E87" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="F87" s="12"/>
-      <c r="G87" s="15"/>
-    </row>
-    <row r="88" spans="2:7">
-      <c r="B88" s="3">
+      <c r="F87" s="22"/>
+      <c r="G87" s="25"/>
+    </row>
+    <row r="88" ht="18.5" spans="2:7">
+      <c r="B88" s="8">
         <v>64</v>
       </c>
-      <c r="C88" s="15"/>
-      <c r="D88" s="19" t="s">
+      <c r="C88" s="25"/>
+      <c r="D88" s="30" t="s">
         <v>200</v>
       </c>
-      <c r="E88" s="15" t="s">
+      <c r="E88" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="F88" s="12"/>
-      <c r="G88" s="15"/>
-    </row>
-    <row r="89" spans="2:7">
-      <c r="B89" s="3">
+      <c r="F88" s="22"/>
+      <c r="G88" s="25"/>
+    </row>
+    <row r="89" ht="18.5" spans="2:7">
+      <c r="B89" s="8">
         <v>65</v>
       </c>
-      <c r="C89" s="15"/>
-      <c r="D89" s="19" t="s">
+      <c r="C89" s="25"/>
+      <c r="D89" s="30" t="s">
         <v>202</v>
       </c>
-      <c r="E89" s="15" t="s">
+      <c r="E89" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="F89" s="13"/>
-      <c r="G89" s="15"/>
+      <c r="F89" s="23"/>
+      <c r="G89" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3039,4 +3157,347 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:G24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="6"/>
+  <cols>
+    <col min="3" max="3" width="19.5727272727273" customWidth="1"/>
+    <col min="4" max="4" width="56.7090909090909" customWidth="1"/>
+    <col min="5" max="5" width="41.3636363636364" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="18.5" spans="2:7">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" ht="18.5" spans="2:7">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" ht="18.5" spans="2:7">
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" ht="18.5" spans="2:7">
+      <c r="B7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" ht="18.5" spans="2:7">
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" ht="18.5" spans="2:7">
+      <c r="B9" s="2">
+        <v>2</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" ht="18.5" spans="2:7">
+      <c r="B12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" ht="18.5" spans="2:7">
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" ht="18.5" spans="2:7">
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" ht="18.5" spans="2:7">
+      <c r="B17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" ht="18.5" spans="2:7">
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" ht="18.5" spans="2:7">
+      <c r="B19" s="2">
+        <v>2</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" ht="18.5" spans="2:7">
+      <c r="B22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" ht="18.5" spans="2:7">
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" ht="18.5" spans="2:7">
+      <c r="B24" s="2">
+        <v>2</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C23:C24"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/document/DSF 시퀀스.xlsx
+++ b/document/DSF 시퀀스.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="249">
   <si>
     <t>no</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>EventInputPortInputTrayBound</t>
-  </si>
-  <si>
-    <t>O</t>
   </si>
   <si>
     <t>투입부 Tray 도착 report with TrayID</t>
@@ -2024,8 +2021,8 @@
   <sheetPr/>
   <dimension ref="B3:H95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="E95" sqref="E95"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -2070,9 +2067,7 @@
         <v>8</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="G4" s="9" t="s">
-        <v>9</v>
-      </c>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" ht="18.5" spans="2:7">
       <c r="B5" s="2">
@@ -2080,15 +2075,13 @@
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="9" t="s">
-        <v>9</v>
-      </c>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" ht="18.5" spans="2:7">
       <c r="B6" s="2">
@@ -2096,15 +2089,13 @@
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="9" t="s">
-        <v>9</v>
-      </c>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" ht="18.5" spans="2:7">
       <c r="B7" s="2">
@@ -2112,15 +2103,13 @@
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="9" t="s">
-        <v>9</v>
-      </c>
+      <c r="G7" s="9"/>
     </row>
     <row r="8" ht="18.5" spans="2:7">
       <c r="B8" s="2">
@@ -2128,15 +2117,13 @@
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="9" t="s">
-        <v>9</v>
-      </c>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" ht="18.5" spans="2:7">
       <c r="B9" s="2">
@@ -2144,15 +2131,13 @@
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="9" t="s">
-        <v>9</v>
-      </c>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" ht="18.5" spans="2:7">
       <c r="B10" s="2">
@@ -2160,10 +2145,10 @@
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="9"/>
@@ -2174,10 +2159,10 @@
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="9"/>
@@ -2188,10 +2173,10 @@
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="9"/>
@@ -2202,10 +2187,10 @@
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="9"/>
@@ -2216,10 +2201,10 @@
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="9"/>
@@ -2230,10 +2215,10 @@
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="9"/>
@@ -2244,10 +2229,10 @@
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="9"/>
@@ -2258,10 +2243,10 @@
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="9"/>
@@ -2272,10 +2257,10 @@
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="9"/>
@@ -2286,10 +2271,10 @@
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="9"/>
@@ -2300,10 +2285,10 @@
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="9"/>
@@ -2314,13 +2299,13 @@
         <v>18</v>
       </c>
       <c r="C21" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="E21" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="9"/>
@@ -2331,10 +2316,10 @@
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="9"/>
@@ -2345,10 +2330,10 @@
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="F23" s="13"/>
       <c r="G23" s="9"/>
@@ -2359,13 +2344,13 @@
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="F24" s="13" t="s">
         <v>50</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>51</v>
       </c>
       <c r="G24" s="9"/>
     </row>
@@ -2375,13 +2360,13 @@
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F25" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G25" s="9"/>
     </row>
@@ -2391,10 +2376,10 @@
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="F26" s="13"/>
       <c r="G26" s="9"/>
@@ -2405,10 +2390,10 @@
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="F27" s="13"/>
       <c r="G27" s="9"/>
@@ -2419,10 +2404,10 @@
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="15" t="s">
         <v>58</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>59</v>
       </c>
       <c r="F28" s="13"/>
       <c r="G28" s="9"/>
@@ -2433,10 +2418,10 @@
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" s="15" t="s">
         <v>60</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>61</v>
       </c>
       <c r="F29" s="13"/>
       <c r="G29" s="9"/>
@@ -2446,13 +2431,13 @@
         <v>27</v>
       </c>
       <c r="C30" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="E30" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="F30" s="17"/>
       <c r="G30" s="9"/>
@@ -2463,10 +2448,10 @@
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="F31" s="13"/>
       <c r="G31" s="9"/>
@@ -2477,10 +2462,10 @@
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="F32" s="13"/>
       <c r="G32" s="9"/>
@@ -2491,10 +2476,10 @@
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="F33" s="13"/>
       <c r="G33" s="9"/>
@@ -2505,10 +2490,10 @@
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="F34" s="13"/>
       <c r="G34" s="9"/>
@@ -2519,10 +2504,10 @@
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="F35" s="13"/>
       <c r="G35" s="9"/>
@@ -2533,10 +2518,10 @@
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="F36" s="13"/>
       <c r="G36" s="9"/>
@@ -2547,10 +2532,10 @@
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="F37" s="13"/>
       <c r="G37" s="9"/>
@@ -2561,322 +2546,322 @@
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="F38" s="13"/>
       <c r="G38" s="9"/>
     </row>
     <row r="39" ht="18.5" spans="2:7">
       <c r="B39" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="D39" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="D39" s="19" t="s">
+      <c r="E39" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="9"/>
     </row>
     <row r="40" ht="18.5" spans="2:7">
       <c r="B40" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="9"/>
     </row>
     <row r="41" ht="18.5" spans="2:7">
       <c r="B41" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="9"/>
     </row>
     <row r="42" ht="18.5" spans="2:7">
       <c r="B42" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="9"/>
     </row>
     <row r="43" ht="18.5" spans="2:7">
       <c r="B43" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="9"/>
     </row>
     <row r="44" ht="18.5" spans="2:7">
       <c r="B44" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="9"/>
     </row>
     <row r="45" ht="18.5" spans="2:7">
       <c r="B45" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="9"/>
     </row>
     <row r="46" ht="18.5" spans="2:7">
       <c r="B46" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="9"/>
     </row>
     <row r="47" ht="18.5" spans="2:7">
       <c r="B47" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="C47" s="20" t="s">
+      <c r="D47" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="D47" s="21" t="s">
+      <c r="E47" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="9"/>
     </row>
     <row r="48" ht="18.5" spans="2:7">
       <c r="B48" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C48" s="22"/>
       <c r="D48" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="9"/>
     </row>
     <row r="49" ht="18.5" spans="2:7">
       <c r="B49" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C49" s="22"/>
       <c r="D49" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="9"/>
     </row>
     <row r="50" ht="18.5" spans="2:7">
       <c r="B50" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C50" s="22"/>
       <c r="D50" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="9"/>
     </row>
     <row r="51" ht="18.5" spans="2:7">
       <c r="B51" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C51" s="22"/>
       <c r="D51" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="9"/>
     </row>
     <row r="52" ht="18.5" spans="2:7">
       <c r="B52" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C52" s="22"/>
       <c r="D52" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="9"/>
     </row>
     <row r="53" ht="18.5" spans="2:7">
       <c r="B53" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C53" s="22"/>
       <c r="D53" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="9"/>
     </row>
     <row r="54" ht="18.5" spans="2:7">
       <c r="B54" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C54" s="22"/>
       <c r="D54" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="9"/>
     </row>
     <row r="55" ht="18.5" spans="2:7">
       <c r="B55" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C55" s="22"/>
       <c r="D55" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="9"/>
     </row>
     <row r="56" ht="18.5" spans="2:7">
       <c r="B56" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C56" s="22"/>
       <c r="D56" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="9"/>
     </row>
     <row r="57" ht="18.5" spans="2:7">
       <c r="B57" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C57" s="22"/>
       <c r="D57" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="9"/>
     </row>
     <row r="58" ht="18.5" spans="2:7">
       <c r="B58" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C58" s="22"/>
       <c r="D58" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="9"/>
     </row>
     <row r="59" ht="18.5" spans="2:7">
       <c r="B59" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C59" s="22"/>
       <c r="D59" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="9"/>
     </row>
     <row r="60" ht="18.5" spans="2:7">
       <c r="B60" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C60" s="23"/>
       <c r="D60" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="9"/>
@@ -2886,13 +2871,13 @@
         <v>37</v>
       </c>
       <c r="C61" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="D61" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="D61" s="25" t="s">
+      <c r="E61" s="26" t="s">
         <v>142</v>
-      </c>
-      <c r="E61" s="26" t="s">
-        <v>143</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="9"/>
@@ -2903,10 +2888,10 @@
       </c>
       <c r="C62" s="24"/>
       <c r="D62" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="E62" s="26" t="s">
         <v>144</v>
-      </c>
-      <c r="E62" s="26" t="s">
-        <v>145</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="9"/>
@@ -2917,10 +2902,10 @@
       </c>
       <c r="C63" s="24"/>
       <c r="D63" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="E63" s="26" t="s">
         <v>146</v>
-      </c>
-      <c r="E63" s="26" t="s">
-        <v>147</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="9"/>
@@ -2931,10 +2916,10 @@
       </c>
       <c r="C64" s="24"/>
       <c r="D64" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="E64" s="26" t="s">
         <v>148</v>
-      </c>
-      <c r="E64" s="26" t="s">
-        <v>149</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="9"/>
@@ -2944,13 +2929,13 @@
         <v>41</v>
       </c>
       <c r="C65" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D65" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="D65" s="28" t="s">
+      <c r="E65" s="15" t="s">
         <v>151</v>
-      </c>
-      <c r="E65" s="15" t="s">
-        <v>152</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="9"/>
@@ -2961,10 +2946,10 @@
       </c>
       <c r="C66" s="24"/>
       <c r="D66" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="9"/>
@@ -2975,10 +2960,10 @@
       </c>
       <c r="C67" s="24"/>
       <c r="D67" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="9"/>
@@ -2989,10 +2974,10 @@
       </c>
       <c r="C68" s="24"/>
       <c r="D68" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="9"/>
@@ -3003,10 +2988,10 @@
       </c>
       <c r="C69" s="24"/>
       <c r="D69" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="9"/>
@@ -3017,10 +3002,10 @@
       </c>
       <c r="C70" s="24"/>
       <c r="D70" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="9"/>
@@ -3031,10 +3016,10 @@
       </c>
       <c r="C71" s="29"/>
       <c r="D71" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="F71" s="31"/>
       <c r="G71" s="9"/>
@@ -3044,13 +3029,13 @@
         <v>48</v>
       </c>
       <c r="C72" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D72" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="D72" s="32" t="s">
+      <c r="E72" s="31" t="s">
         <v>166</v>
-      </c>
-      <c r="E72" s="31" t="s">
-        <v>167</v>
       </c>
       <c r="F72" s="31"/>
       <c r="G72" s="9"/>
@@ -3061,13 +3046,13 @@
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="E73" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="E73" s="31" t="s">
+      <c r="F73" s="31" t="s">
         <v>169</v>
-      </c>
-      <c r="F73" s="31" t="s">
-        <v>170</v>
       </c>
       <c r="G73" s="9"/>
     </row>
@@ -3077,10 +3062,10 @@
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="E74" s="31" t="s">
         <v>171</v>
-      </c>
-      <c r="E74" s="31" t="s">
-        <v>172</v>
       </c>
       <c r="F74" s="31"/>
       <c r="G74" s="9"/>
@@ -3091,10 +3076,10 @@
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="E75" s="31" t="s">
         <v>173</v>
-      </c>
-      <c r="E75" s="31" t="s">
-        <v>174</v>
       </c>
       <c r="F75" s="31"/>
       <c r="G75" s="9"/>
@@ -3104,13 +3089,13 @@
         <v>52</v>
       </c>
       <c r="C76" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="D76" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="D76" s="33" t="s">
+      <c r="E76" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="F76" s="2"/>
       <c r="G76" s="9"/>
@@ -3121,10 +3106,10 @@
       </c>
       <c r="C77" s="24"/>
       <c r="D77" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="9"/>
@@ -3135,10 +3120,10 @@
       </c>
       <c r="C78" s="24"/>
       <c r="D78" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>181</v>
       </c>
       <c r="F78" s="2"/>
       <c r="G78" s="9"/>
@@ -3149,10 +3134,10 @@
       </c>
       <c r="C79" s="24"/>
       <c r="D79" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="F79" s="2"/>
       <c r="G79" s="9"/>
@@ -3163,10 +3148,10 @@
       </c>
       <c r="C80" s="24"/>
       <c r="D80" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>185</v>
       </c>
       <c r="F80" s="2"/>
       <c r="G80" s="9"/>
@@ -3177,10 +3162,10 @@
       </c>
       <c r="C81" s="24"/>
       <c r="D81" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>187</v>
       </c>
       <c r="F81" s="2"/>
       <c r="G81" s="9"/>
@@ -3191,10 +3176,10 @@
       </c>
       <c r="C82" s="24"/>
       <c r="D82" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>189</v>
       </c>
       <c r="F82" s="2"/>
       <c r="G82" s="9"/>
@@ -3205,10 +3190,10 @@
       </c>
       <c r="C83" s="24"/>
       <c r="D83" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>191</v>
       </c>
       <c r="F83" s="2"/>
       <c r="G83" s="9"/>
@@ -3219,10 +3204,10 @@
       </c>
       <c r="C84" s="24"/>
       <c r="D84" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>193</v>
       </c>
       <c r="F84" s="2"/>
       <c r="G84" s="9"/>
@@ -3233,10 +3218,10 @@
       </c>
       <c r="C85" s="24"/>
       <c r="D85" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>195</v>
       </c>
       <c r="F85" s="2"/>
       <c r="G85" s="9"/>
@@ -3247,10 +3232,10 @@
       </c>
       <c r="C86" s="24"/>
       <c r="D86" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>197</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" s="9"/>
@@ -3260,13 +3245,13 @@
         <v>63</v>
       </c>
       <c r="C87" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="D87" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="D87" s="35" t="s">
+      <c r="E87" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>200</v>
       </c>
       <c r="F87" s="2"/>
       <c r="G87" s="9"/>
@@ -3277,10 +3262,10 @@
       </c>
       <c r="C88" s="24"/>
       <c r="D88" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="F88" s="2"/>
       <c r="G88" s="9"/>
@@ -3291,10 +3276,10 @@
       </c>
       <c r="C89" s="24"/>
       <c r="D89" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>204</v>
       </c>
       <c r="F89" s="2"/>
       <c r="G89" s="9"/>
@@ -3305,10 +3290,10 @@
       </c>
       <c r="C90" s="24"/>
       <c r="D90" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>206</v>
       </c>
       <c r="F90" s="2"/>
       <c r="G90" s="9"/>
@@ -3319,10 +3304,10 @@
       </c>
       <c r="C91" s="24"/>
       <c r="D91" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="E91" s="31" t="s">
         <v>207</v>
-      </c>
-      <c r="E91" s="31" t="s">
-        <v>208</v>
       </c>
       <c r="F91" s="31"/>
       <c r="G91" s="9"/>
@@ -3332,13 +3317,13 @@
         <v>68</v>
       </c>
       <c r="C92" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="D92" s="37" t="s">
         <v>209</v>
       </c>
-      <c r="D92" s="37" t="s">
+      <c r="E92" s="31" t="s">
         <v>210</v>
-      </c>
-      <c r="E92" s="31" t="s">
-        <v>211</v>
       </c>
       <c r="F92" s="31"/>
       <c r="G92" s="9"/>
@@ -3349,10 +3334,10 @@
       </c>
       <c r="C93" s="22"/>
       <c r="D93" s="37" t="s">
+        <v>211</v>
+      </c>
+      <c r="E93" s="31" t="s">
         <v>212</v>
-      </c>
-      <c r="E93" s="31" t="s">
-        <v>213</v>
       </c>
       <c r="F93" s="31"/>
       <c r="G93" s="9"/>
@@ -3363,10 +3348,10 @@
       </c>
       <c r="C94" s="22"/>
       <c r="D94" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="E94" s="31" t="s">
         <v>214</v>
-      </c>
-      <c r="E94" s="31" t="s">
-        <v>215</v>
       </c>
       <c r="F94" s="31"/>
       <c r="G94" s="9"/>
@@ -3377,10 +3362,10 @@
       </c>
       <c r="C95" s="23"/>
       <c r="D95" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="E95" s="31" t="s">
         <v>216</v>
-      </c>
-      <c r="E95" s="31" t="s">
-        <v>217</v>
       </c>
       <c r="F95" s="31"/>
       <c r="G95" s="9"/>
@@ -3425,7 +3410,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -3434,7 +3419,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>4</v>
@@ -3445,13 +3430,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>222</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -3462,10 +3447,10 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>224</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -3491,7 +3476,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>2</v>
@@ -3500,7 +3485,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>4</v>
@@ -3511,13 +3496,13 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>227</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -3528,10 +3513,10 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>229</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -3557,7 +3542,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>2</v>
@@ -3566,7 +3551,7 @@
         <v>3</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>4</v>
@@ -3577,13 +3562,13 @@
         <v>1</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>232</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -3594,10 +3579,10 @@
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>234</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -3623,7 +3608,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>2</v>
@@ -3632,7 +3617,7 @@
         <v>3</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>4</v>
@@ -3643,13 +3628,13 @@
         <v>1</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>237</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -3660,10 +3645,10 @@
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>239</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -3689,7 +3674,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>2</v>
@@ -3698,7 +3683,7 @@
         <v>3</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>4</v>
@@ -3709,13 +3694,13 @@
         <v>1</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>242</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -3726,10 +3711,10 @@
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>244</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -3755,7 +3740,7 @@
         <v>0</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>2</v>
@@ -3764,7 +3749,7 @@
         <v>3</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>4</v>
@@ -3775,13 +3760,13 @@
         <v>1</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>247</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -3792,10 +3777,10 @@
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>249</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>

--- a/document/DSF 시퀀스.xlsx
+++ b/document/DSF 시퀀스.xlsx
@@ -1213,7 +1213,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1231,87 +1231,6 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -1441,7 +1360,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1453,34 +1372,34 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1565,7 +1484,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1587,37 +1506,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1626,35 +1530,14 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2021,8 +1904,8 @@
   <sheetPr/>
   <dimension ref="B3:H95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -2057,972 +1940,972 @@
       <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="G4" s="9"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" ht="18.5" spans="2:7">
       <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="8" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="9"/>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" ht="18.5" spans="2:7">
       <c r="B6" s="2">
         <v>3</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="8" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="9"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" ht="18.5" spans="2:7">
       <c r="B7" s="2">
         <v>4</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="8" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="9"/>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" ht="18.5" spans="2:7">
       <c r="B8" s="2">
         <v>5</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="8" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="9"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" ht="18.5" spans="2:7">
       <c r="B9" s="2">
         <v>6</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="8" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="9"/>
+      <c r="G9" s="8"/>
     </row>
     <row r="10" ht="18.5" spans="2:7">
       <c r="B10" s="2">
         <v>7</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="8" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F10" s="2"/>
-      <c r="G10" s="9"/>
+      <c r="G10" s="8"/>
     </row>
     <row r="11" ht="18.5" spans="2:7">
       <c r="B11" s="2">
         <v>8</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="8" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F11" s="2"/>
-      <c r="G11" s="9"/>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" ht="18.5" spans="2:7">
       <c r="B12" s="2">
         <v>9</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="8" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="7" t="s">
         <v>23</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="9"/>
+      <c r="G12" s="8"/>
     </row>
     <row r="13" ht="18.5" spans="2:7">
       <c r="B13" s="2">
         <v>10</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="8" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F13" s="2"/>
-      <c r="G13" s="9"/>
+      <c r="G13" s="8"/>
     </row>
     <row r="14" ht="18.5" spans="2:7">
       <c r="B14" s="2">
         <v>11</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="8" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F14" s="2"/>
-      <c r="G14" s="9"/>
+      <c r="G14" s="8"/>
     </row>
     <row r="15" ht="18.5" spans="2:7">
       <c r="B15" s="2">
         <v>12</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="8" t="s">
+      <c r="C15" s="3"/>
+      <c r="D15" s="7" t="s">
         <v>29</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F15" s="2"/>
-      <c r="G15" s="9"/>
+      <c r="G15" s="8"/>
     </row>
     <row r="16" ht="18.5" spans="2:7">
       <c r="B16" s="2">
         <v>13</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="8" t="s">
+      <c r="C16" s="3"/>
+      <c r="D16" s="7" t="s">
         <v>31</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F16" s="2"/>
-      <c r="G16" s="9"/>
+      <c r="G16" s="8"/>
     </row>
     <row r="17" ht="18.5" spans="2:7">
       <c r="B17" s="2">
         <v>14</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="8" t="s">
+      <c r="C17" s="3"/>
+      <c r="D17" s="7" t="s">
         <v>33</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F17" s="2"/>
-      <c r="G17" s="9"/>
+      <c r="G17" s="8"/>
     </row>
     <row r="18" ht="18.5" spans="2:7">
       <c r="B18" s="2">
         <v>15</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="8" t="s">
+      <c r="C18" s="3"/>
+      <c r="D18" s="7" t="s">
         <v>35</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F18" s="2"/>
-      <c r="G18" s="9"/>
+      <c r="G18" s="8"/>
     </row>
     <row r="19" ht="18.5" spans="2:7">
       <c r="B19" s="2">
         <v>16</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="8" t="s">
+      <c r="C19" s="3"/>
+      <c r="D19" s="7" t="s">
         <v>37</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F19" s="2"/>
-      <c r="G19" s="9"/>
+      <c r="G19" s="8"/>
     </row>
     <row r="20" ht="17" customHeight="1" spans="2:8">
       <c r="B20" s="2">
         <v>17</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="8" t="s">
+      <c r="C20" s="3"/>
+      <c r="D20" s="7" t="s">
         <v>39</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F20" s="2"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
     </row>
     <row r="21" ht="18.5" spans="2:7">
       <c r="B21" s="2">
         <v>18</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="9" t="s">
         <v>42</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="9"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="8"/>
     </row>
     <row r="22" ht="18.5" spans="2:7">
       <c r="B22" s="2">
         <v>19</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="14" t="s">
+      <c r="C22" s="3"/>
+      <c r="D22" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="13"/>
-      <c r="G22" s="9"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="8"/>
     </row>
     <row r="23" ht="18.5" spans="2:7">
       <c r="B23" s="2">
         <v>20</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="14" t="s">
+      <c r="C23" s="3"/>
+      <c r="D23" s="10" t="s">
         <v>46</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="9"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="8"/>
     </row>
     <row r="24" ht="18.5" spans="2:7">
       <c r="B24" s="2">
         <v>21</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="14" t="s">
+      <c r="C24" s="3"/>
+      <c r="D24" s="10" t="s">
         <v>48</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G24" s="9"/>
+      <c r="G24" s="8"/>
     </row>
     <row r="25" ht="18.5" spans="2:7">
       <c r="B25" s="2">
         <v>22</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="14" t="s">
+      <c r="C25" s="3"/>
+      <c r="D25" s="10" t="s">
         <v>51</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="F25" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G25" s="9"/>
+      <c r="G25" s="8"/>
     </row>
     <row r="26" ht="18.5" spans="2:7">
       <c r="B26" s="2">
         <v>23</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="14" t="s">
+      <c r="C26" s="3"/>
+      <c r="D26" s="10" t="s">
         <v>53</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F26" s="13"/>
-      <c r="G26" s="9"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="8"/>
     </row>
     <row r="27" ht="18.5" spans="2:7">
       <c r="B27" s="2">
         <v>24</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="14" t="s">
+      <c r="C27" s="3"/>
+      <c r="D27" s="10" t="s">
         <v>55</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="13"/>
-      <c r="G27" s="9"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="8"/>
     </row>
     <row r="28" ht="18.5" spans="2:7">
       <c r="B28" s="2">
         <v>25</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="14" t="s">
+      <c r="C28" s="3"/>
+      <c r="D28" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="E28" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F28" s="13"/>
-      <c r="G28" s="9"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="8"/>
     </row>
     <row r="29" ht="18.5" spans="2:7">
       <c r="B29" s="2">
         <v>26</v>
       </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="14" t="s">
+      <c r="C29" s="3"/>
+      <c r="D29" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E29" s="15" t="s">
+      <c r="E29" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="F29" s="13"/>
-      <c r="G29" s="9"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="8"/>
     </row>
     <row r="30" ht="18.5" spans="2:7">
       <c r="B30" s="2">
         <v>27</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="12" t="s">
         <v>62</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F30" s="17"/>
-      <c r="G30" s="9"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="8"/>
     </row>
     <row r="31" ht="18.5" spans="2:7">
       <c r="B31" s="2">
         <v>28</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="16" t="s">
+      <c r="C31" s="3"/>
+      <c r="D31" s="12" t="s">
         <v>64</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F31" s="13"/>
-      <c r="G31" s="9"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="8"/>
     </row>
     <row r="32" ht="18.5" spans="2:7">
       <c r="B32" s="2">
         <v>29</v>
       </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="16" t="s">
+      <c r="C32" s="3"/>
+      <c r="D32" s="12" t="s">
         <v>66</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F32" s="13"/>
-      <c r="G32" s="9"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="8"/>
     </row>
     <row r="33" ht="18.5" spans="2:7">
       <c r="B33" s="2">
         <v>30</v>
       </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="16" t="s">
+      <c r="C33" s="3"/>
+      <c r="D33" s="12" t="s">
         <v>68</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F33" s="13"/>
-      <c r="G33" s="9"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="8"/>
     </row>
     <row r="34" ht="18.5" spans="2:7">
       <c r="B34" s="2">
         <v>31</v>
       </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="16" t="s">
+      <c r="C34" s="3"/>
+      <c r="D34" s="12" t="s">
         <v>70</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F34" s="13"/>
-      <c r="G34" s="9"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="8"/>
     </row>
     <row r="35" ht="18.5" spans="2:7">
       <c r="B35" s="2">
         <v>32</v>
       </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="16" t="s">
+      <c r="C35" s="3"/>
+      <c r="D35" s="12" t="s">
         <v>72</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F35" s="13"/>
-      <c r="G35" s="9"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="8"/>
     </row>
     <row r="36" ht="18.5" spans="2:7">
       <c r="B36" s="2">
         <v>33</v>
       </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="16" t="s">
+      <c r="C36" s="3"/>
+      <c r="D36" s="12" t="s">
         <v>74</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F36" s="13"/>
-      <c r="G36" s="9"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="8"/>
     </row>
     <row r="37" ht="18.5" spans="2:7">
       <c r="B37" s="2">
         <v>34</v>
       </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="16" t="s">
+      <c r="C37" s="3"/>
+      <c r="D37" s="12" t="s">
         <v>76</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F37" s="13"/>
-      <c r="G37" s="9"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="8"/>
     </row>
     <row r="38" ht="18.5" spans="2:7">
       <c r="B38" s="2">
         <v>35</v>
       </c>
-      <c r="C38" s="11"/>
-      <c r="D38" s="16" t="s">
+      <c r="C38" s="3"/>
+      <c r="D38" s="12" t="s">
         <v>78</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F38" s="13"/>
-      <c r="G38" s="9"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="8"/>
     </row>
     <row r="39" ht="18.5" spans="2:7">
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="13" t="s">
         <v>80</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D39" s="19" t="s">
+      <c r="D39" s="14" t="s">
         <v>82</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F39" s="2"/>
-      <c r="G39" s="9"/>
+      <c r="G39" s="8"/>
     </row>
     <row r="40" ht="18.5" spans="2:7">
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="13" t="s">
         <v>84</v>
       </c>
       <c r="C40" s="3"/>
-      <c r="D40" s="19" t="s">
+      <c r="D40" s="14" t="s">
         <v>85</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>86</v>
       </c>
       <c r="F40" s="2"/>
-      <c r="G40" s="9"/>
+      <c r="G40" s="8"/>
     </row>
     <row r="41" ht="18.5" spans="2:7">
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="13" t="s">
         <v>87</v>
       </c>
       <c r="C41" s="3"/>
-      <c r="D41" s="19" t="s">
+      <c r="D41" s="14" t="s">
         <v>88</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>89</v>
       </c>
       <c r="F41" s="2"/>
-      <c r="G41" s="9"/>
+      <c r="G41" s="8"/>
     </row>
     <row r="42" ht="18.5" spans="2:7">
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="13" t="s">
         <v>90</v>
       </c>
       <c r="C42" s="3"/>
-      <c r="D42" s="19" t="s">
+      <c r="D42" s="14" t="s">
         <v>91</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>92</v>
       </c>
       <c r="F42" s="2"/>
-      <c r="G42" s="9"/>
+      <c r="G42" s="8"/>
     </row>
     <row r="43" ht="18.5" spans="2:7">
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="13" t="s">
         <v>93</v>
       </c>
       <c r="C43" s="3"/>
-      <c r="D43" s="19" t="s">
+      <c r="D43" s="14" t="s">
         <v>94</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>95</v>
       </c>
       <c r="F43" s="2"/>
-      <c r="G43" s="9"/>
+      <c r="G43" s="8"/>
     </row>
     <row r="44" ht="18.5" spans="2:7">
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="13" t="s">
         <v>96</v>
       </c>
       <c r="C44" s="3"/>
-      <c r="D44" s="19" t="s">
+      <c r="D44" s="14" t="s">
         <v>97</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>98</v>
       </c>
       <c r="F44" s="2"/>
-      <c r="G44" s="9"/>
+      <c r="G44" s="8"/>
     </row>
     <row r="45" ht="18.5" spans="2:7">
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="13" t="s">
         <v>99</v>
       </c>
       <c r="C45" s="3"/>
-      <c r="D45" s="19" t="s">
+      <c r="D45" s="14" t="s">
         <v>100</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F45" s="2"/>
-      <c r="G45" s="9"/>
+      <c r="G45" s="8"/>
     </row>
     <row r="46" ht="18.5" spans="2:7">
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="13" t="s">
         <v>102</v>
       </c>
       <c r="C46" s="3"/>
-      <c r="D46" s="19" t="s">
+      <c r="D46" s="14" t="s">
         <v>103</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>104</v>
       </c>
       <c r="F46" s="2"/>
-      <c r="G46" s="9"/>
+      <c r="G46" s="8"/>
     </row>
     <row r="47" ht="18.5" spans="2:7">
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="C47" s="20" t="s">
+      <c r="C47" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D47" s="21" t="s">
+      <c r="D47" s="15" t="s">
         <v>107</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>108</v>
       </c>
       <c r="F47" s="2"/>
-      <c r="G47" s="9"/>
+      <c r="G47" s="8"/>
     </row>
     <row r="48" ht="18.5" spans="2:7">
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="C48" s="22"/>
-      <c r="D48" s="21" t="s">
+      <c r="C48" s="3"/>
+      <c r="D48" s="15" t="s">
         <v>110</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>111</v>
       </c>
       <c r="F48" s="2"/>
-      <c r="G48" s="9"/>
+      <c r="G48" s="8"/>
     </row>
     <row r="49" ht="18.5" spans="2:7">
-      <c r="B49" s="18" t="s">
+      <c r="B49" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C49" s="22"/>
-      <c r="D49" s="21" t="s">
+      <c r="C49" s="3"/>
+      <c r="D49" s="15" t="s">
         <v>113</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>89</v>
       </c>
       <c r="F49" s="2"/>
-      <c r="G49" s="9"/>
+      <c r="G49" s="8"/>
     </row>
     <row r="50" ht="18.5" spans="2:7">
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="C50" s="22"/>
-      <c r="D50" s="21" t="s">
+      <c r="C50" s="3"/>
+      <c r="D50" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="E50" s="15" t="s">
+      <c r="E50" s="11" t="s">
         <v>92</v>
       </c>
       <c r="F50" s="2"/>
-      <c r="G50" s="9"/>
+      <c r="G50" s="8"/>
     </row>
     <row r="51" ht="18.5" spans="2:7">
-      <c r="B51" s="18" t="s">
+      <c r="B51" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="C51" s="22"/>
-      <c r="D51" s="21" t="s">
+      <c r="C51" s="3"/>
+      <c r="D51" s="15" t="s">
         <v>117</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>118</v>
       </c>
       <c r="F51" s="2"/>
-      <c r="G51" s="9"/>
+      <c r="G51" s="8"/>
     </row>
     <row r="52" ht="18.5" spans="2:7">
-      <c r="B52" s="18" t="s">
+      <c r="B52" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="C52" s="22"/>
-      <c r="D52" s="21" t="s">
+      <c r="C52" s="3"/>
+      <c r="D52" s="15" t="s">
         <v>120</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>121</v>
       </c>
       <c r="F52" s="2"/>
-      <c r="G52" s="9"/>
+      <c r="G52" s="8"/>
     </row>
     <row r="53" ht="18.5" spans="2:7">
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="C53" s="22"/>
-      <c r="D53" s="21" t="s">
+      <c r="C53" s="3"/>
+      <c r="D53" s="15" t="s">
         <v>123</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F53" s="2"/>
-      <c r="G53" s="9"/>
+      <c r="G53" s="8"/>
     </row>
     <row r="54" ht="18.5" spans="2:7">
-      <c r="B54" s="18" t="s">
+      <c r="B54" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="C54" s="22"/>
-      <c r="D54" s="21" t="s">
+      <c r="C54" s="3"/>
+      <c r="D54" s="15" t="s">
         <v>125</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F54" s="2"/>
-      <c r="G54" s="9"/>
+      <c r="G54" s="8"/>
     </row>
     <row r="55" ht="18.5" spans="2:7">
-      <c r="B55" s="18" t="s">
+      <c r="B55" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="C55" s="22"/>
-      <c r="D55" s="21" t="s">
+      <c r="C55" s="3"/>
+      <c r="D55" s="15" t="s">
         <v>127</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F55" s="2"/>
-      <c r="G55" s="9"/>
+      <c r="G55" s="8"/>
     </row>
     <row r="56" ht="18.5" spans="2:7">
-      <c r="B56" s="18" t="s">
+      <c r="B56" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="C56" s="22"/>
-      <c r="D56" s="21" t="s">
+      <c r="C56" s="3"/>
+      <c r="D56" s="15" t="s">
         <v>129</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F56" s="2"/>
-      <c r="G56" s="9"/>
+      <c r="G56" s="8"/>
     </row>
     <row r="57" ht="18.5" spans="2:7">
-      <c r="B57" s="18" t="s">
+      <c r="B57" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="C57" s="22"/>
-      <c r="D57" s="21" t="s">
+      <c r="C57" s="3"/>
+      <c r="D57" s="15" t="s">
         <v>131</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F57" s="2"/>
-      <c r="G57" s="9"/>
+      <c r="G57" s="8"/>
     </row>
     <row r="58" ht="18.5" spans="2:7">
-      <c r="B58" s="18" t="s">
+      <c r="B58" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="C58" s="22"/>
-      <c r="D58" s="21" t="s">
+      <c r="C58" s="3"/>
+      <c r="D58" s="15" t="s">
         <v>133</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F58" s="2"/>
-      <c r="G58" s="9"/>
+      <c r="G58" s="8"/>
     </row>
     <row r="59" ht="18.5" spans="2:7">
-      <c r="B59" s="18" t="s">
+      <c r="B59" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="C59" s="22"/>
-      <c r="D59" s="21" t="s">
+      <c r="C59" s="3"/>
+      <c r="D59" s="15" t="s">
         <v>135</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>136</v>
       </c>
       <c r="F59" s="2"/>
-      <c r="G59" s="9"/>
+      <c r="G59" s="8"/>
     </row>
     <row r="60" ht="18.5" spans="2:7">
-      <c r="B60" s="18" t="s">
+      <c r="B60" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="C60" s="23"/>
-      <c r="D60" s="21" t="s">
+      <c r="C60" s="3"/>
+      <c r="D60" s="15" t="s">
         <v>138</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>139</v>
       </c>
       <c r="F60" s="2"/>
-      <c r="G60" s="9"/>
+      <c r="G60" s="8"/>
     </row>
     <row r="61" ht="18.5" spans="2:7">
       <c r="B61" s="2">
         <v>37</v>
       </c>
-      <c r="C61" s="24" t="s">
+      <c r="C61" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D61" s="25" t="s">
+      <c r="D61" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="E61" s="26" t="s">
+      <c r="E61" s="2" t="s">
         <v>142</v>
       </c>
       <c r="F61" s="2"/>
-      <c r="G61" s="9"/>
+      <c r="G61" s="8"/>
     </row>
     <row r="62" ht="18.5" spans="2:7">
       <c r="B62" s="2">
         <v>38</v>
       </c>
-      <c r="C62" s="24"/>
-      <c r="D62" s="25" t="s">
+      <c r="C62" s="3"/>
+      <c r="D62" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="E62" s="26" t="s">
+      <c r="E62" s="2" t="s">
         <v>144</v>
       </c>
       <c r="F62" s="2"/>
-      <c r="G62" s="9"/>
+      <c r="G62" s="8"/>
     </row>
     <row r="63" ht="18.5" spans="2:7">
       <c r="B63" s="2">
         <v>39</v>
       </c>
-      <c r="C63" s="24"/>
-      <c r="D63" s="25" t="s">
+      <c r="C63" s="3"/>
+      <c r="D63" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="E63" s="26" t="s">
+      <c r="E63" s="2" t="s">
         <v>146</v>
       </c>
       <c r="F63" s="2"/>
-      <c r="G63" s="9"/>
+      <c r="G63" s="8"/>
     </row>
     <row r="64" ht="18.5" spans="2:7">
       <c r="B64" s="2">
         <v>40</v>
       </c>
-      <c r="C64" s="24"/>
-      <c r="D64" s="25" t="s">
+      <c r="C64" s="3"/>
+      <c r="D64" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="E64" s="26" t="s">
+      <c r="E64" s="2" t="s">
         <v>148</v>
       </c>
       <c r="F64" s="2"/>
-      <c r="G64" s="9"/>
+      <c r="G64" s="8"/>
     </row>
     <row r="65" ht="18.5" spans="2:7">
       <c r="B65" s="2">
         <v>41</v>
       </c>
-      <c r="C65" s="27" t="s">
+      <c r="C65" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="D65" s="28" t="s">
+      <c r="D65" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="E65" s="15" t="s">
+      <c r="E65" s="11" t="s">
         <v>151</v>
       </c>
       <c r="F65" s="2"/>
-      <c r="G65" s="9"/>
+      <c r="G65" s="8"/>
     </row>
     <row r="66" ht="18.5" spans="2:7">
       <c r="B66" s="2">
         <v>42</v>
       </c>
-      <c r="C66" s="24"/>
-      <c r="D66" s="28" t="s">
+      <c r="C66" s="3"/>
+      <c r="D66" s="17" t="s">
         <v>152</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>153</v>
       </c>
       <c r="F66" s="2"/>
-      <c r="G66" s="9"/>
+      <c r="G66" s="8"/>
     </row>
     <row r="67" ht="18.5" spans="2:7">
       <c r="B67" s="2">
         <v>43</v>
       </c>
-      <c r="C67" s="24"/>
-      <c r="D67" s="28" t="s">
+      <c r="C67" s="3"/>
+      <c r="D67" s="17" t="s">
         <v>154</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>155</v>
       </c>
       <c r="F67" s="2"/>
-      <c r="G67" s="9"/>
+      <c r="G67" s="8"/>
     </row>
     <row r="68" ht="18.5" spans="2:7">
       <c r="B68" s="2">
         <v>44</v>
       </c>
-      <c r="C68" s="24"/>
-      <c r="D68" s="28" t="s">
+      <c r="C68" s="3"/>
+      <c r="D68" s="17" t="s">
         <v>156</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>157</v>
       </c>
       <c r="F68" s="2"/>
-      <c r="G68" s="9"/>
+      <c r="G68" s="8"/>
     </row>
     <row r="69" ht="18.5" spans="2:7">
       <c r="B69" s="2">
         <v>45</v>
       </c>
-      <c r="C69" s="24"/>
-      <c r="D69" s="28" t="s">
+      <c r="C69" s="3"/>
+      <c r="D69" s="17" t="s">
         <v>158</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>159</v>
       </c>
       <c r="F69" s="2"/>
-      <c r="G69" s="9"/>
+      <c r="G69" s="8"/>
     </row>
     <row r="70" ht="18.5" spans="2:7">
       <c r="B70" s="2">
         <v>46</v>
       </c>
-      <c r="C70" s="24"/>
-      <c r="D70" s="28" t="s">
+      <c r="C70" s="3"/>
+      <c r="D70" s="17" t="s">
         <v>160</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>161</v>
       </c>
       <c r="F70" s="2"/>
-      <c r="G70" s="9"/>
+      <c r="G70" s="8"/>
     </row>
     <row r="71" ht="18.5" spans="2:7">
       <c r="B71" s="2">
         <v>47</v>
       </c>
-      <c r="C71" s="29"/>
-      <c r="D71" s="30" t="s">
+      <c r="C71" s="3"/>
+      <c r="D71" s="18" t="s">
         <v>162</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F71" s="31"/>
-      <c r="G71" s="9"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="8"/>
     </row>
     <row r="72" ht="18.5" spans="2:7">
       <c r="B72" s="2">
@@ -3031,344 +2914,344 @@
       <c r="C72" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D72" s="32" t="s">
+      <c r="D72" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="E72" s="31" t="s">
+      <c r="E72" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="F72" s="31"/>
-      <c r="G72" s="9"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="8"/>
     </row>
     <row r="73" ht="18.5" spans="2:7">
       <c r="B73" s="2">
         <v>49</v>
       </c>
       <c r="C73" s="3"/>
-      <c r="D73" s="32" t="s">
+      <c r="D73" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="E73" s="31" t="s">
+      <c r="E73" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="F73" s="31" t="s">
+      <c r="F73" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="G73" s="9"/>
+      <c r="G73" s="8"/>
     </row>
     <row r="74" ht="18.5" spans="2:7">
       <c r="B74" s="2">
         <v>50</v>
       </c>
       <c r="C74" s="3"/>
-      <c r="D74" s="32" t="s">
+      <c r="D74" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="E74" s="31" t="s">
+      <c r="E74" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="F74" s="31"/>
-      <c r="G74" s="9"/>
+      <c r="F74" s="19"/>
+      <c r="G74" s="8"/>
     </row>
     <row r="75" ht="18.5" spans="2:7">
       <c r="B75" s="2">
         <v>51</v>
       </c>
       <c r="C75" s="3"/>
-      <c r="D75" s="32" t="s">
+      <c r="D75" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="E75" s="31" t="s">
+      <c r="E75" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="F75" s="31"/>
-      <c r="G75" s="9"/>
+      <c r="F75" s="19"/>
+      <c r="G75" s="8"/>
     </row>
     <row r="76" ht="18.5" spans="2:7">
       <c r="B76" s="2">
         <v>52</v>
       </c>
-      <c r="C76" s="27" t="s">
+      <c r="C76" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="D76" s="33" t="s">
+      <c r="D76" s="21" t="s">
         <v>175</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>176</v>
       </c>
       <c r="F76" s="2"/>
-      <c r="G76" s="9"/>
+      <c r="G76" s="8"/>
     </row>
     <row r="77" ht="18.5" spans="2:7">
       <c r="B77" s="2">
         <v>53</v>
       </c>
-      <c r="C77" s="24"/>
-      <c r="D77" s="33" t="s">
+      <c r="C77" s="3"/>
+      <c r="D77" s="21" t="s">
         <v>177</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>178</v>
       </c>
       <c r="F77" s="2"/>
-      <c r="G77" s="9"/>
+      <c r="G77" s="8"/>
     </row>
     <row r="78" ht="18.5" spans="2:7">
       <c r="B78" s="2">
         <v>54</v>
       </c>
-      <c r="C78" s="24"/>
-      <c r="D78" s="33" t="s">
+      <c r="C78" s="3"/>
+      <c r="D78" s="21" t="s">
         <v>179</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>180</v>
       </c>
       <c r="F78" s="2"/>
-      <c r="G78" s="9"/>
+      <c r="G78" s="8"/>
     </row>
     <row r="79" ht="18.5" spans="2:7">
       <c r="B79" s="2">
         <v>55</v>
       </c>
-      <c r="C79" s="24"/>
-      <c r="D79" s="33" t="s">
+      <c r="C79" s="3"/>
+      <c r="D79" s="21" t="s">
         <v>181</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>182</v>
       </c>
       <c r="F79" s="2"/>
-      <c r="G79" s="9"/>
+      <c r="G79" s="8"/>
     </row>
     <row r="80" ht="18.5" spans="2:7">
       <c r="B80" s="2">
         <v>56</v>
       </c>
-      <c r="C80" s="24"/>
-      <c r="D80" s="33" t="s">
+      <c r="C80" s="3"/>
+      <c r="D80" s="21" t="s">
         <v>183</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>184</v>
       </c>
       <c r="F80" s="2"/>
-      <c r="G80" s="9"/>
+      <c r="G80" s="8"/>
     </row>
     <row r="81" ht="18.5" spans="2:7">
       <c r="B81" s="2">
         <v>57</v>
       </c>
-      <c r="C81" s="24"/>
-      <c r="D81" s="33" t="s">
+      <c r="C81" s="3"/>
+      <c r="D81" s="21" t="s">
         <v>185</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>186</v>
       </c>
       <c r="F81" s="2"/>
-      <c r="G81" s="9"/>
+      <c r="G81" s="8"/>
     </row>
     <row r="82" ht="18.5" spans="2:7">
       <c r="B82" s="2">
         <v>58</v>
       </c>
-      <c r="C82" s="24"/>
-      <c r="D82" s="33" t="s">
+      <c r="C82" s="3"/>
+      <c r="D82" s="21" t="s">
         <v>187</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>188</v>
       </c>
       <c r="F82" s="2"/>
-      <c r="G82" s="9"/>
+      <c r="G82" s="8"/>
     </row>
     <row r="83" ht="18.5" spans="2:7">
       <c r="B83" s="2">
         <v>59</v>
       </c>
-      <c r="C83" s="24"/>
-      <c r="D83" s="33" t="s">
+      <c r="C83" s="3"/>
+      <c r="D83" s="21" t="s">
         <v>189</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>190</v>
       </c>
       <c r="F83" s="2"/>
-      <c r="G83" s="9"/>
+      <c r="G83" s="8"/>
     </row>
     <row r="84" ht="18.5" spans="2:7">
       <c r="B84" s="2">
         <v>60</v>
       </c>
-      <c r="C84" s="24"/>
-      <c r="D84" s="33" t="s">
+      <c r="C84" s="3"/>
+      <c r="D84" s="21" t="s">
         <v>191</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>192</v>
       </c>
       <c r="F84" s="2"/>
-      <c r="G84" s="9"/>
+      <c r="G84" s="8"/>
     </row>
     <row r="85" ht="18.5" spans="2:7">
       <c r="B85" s="2">
         <v>61</v>
       </c>
-      <c r="C85" s="24"/>
-      <c r="D85" s="33" t="s">
+      <c r="C85" s="3"/>
+      <c r="D85" s="21" t="s">
         <v>193</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>194</v>
       </c>
       <c r="F85" s="2"/>
-      <c r="G85" s="9"/>
+      <c r="G85" s="8"/>
     </row>
     <row r="86" ht="18.5" spans="2:7">
       <c r="B86" s="2">
         <v>62</v>
       </c>
-      <c r="C86" s="24"/>
-      <c r="D86" s="34" t="s">
+      <c r="C86" s="3"/>
+      <c r="D86" s="22" t="s">
         <v>195</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>196</v>
       </c>
       <c r="F86" s="2"/>
-      <c r="G86" s="9"/>
+      <c r="G86" s="8"/>
     </row>
     <row r="87" ht="18.5" spans="2:7">
       <c r="B87" s="2">
         <v>63</v>
       </c>
-      <c r="C87" s="27" t="s">
+      <c r="C87" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="D87" s="35" t="s">
+      <c r="D87" s="23" t="s">
         <v>198</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>199</v>
       </c>
       <c r="F87" s="2"/>
-      <c r="G87" s="9"/>
+      <c r="G87" s="8"/>
     </row>
     <row r="88" ht="18.5" spans="2:7">
       <c r="B88" s="2">
         <v>64</v>
       </c>
-      <c r="C88" s="24"/>
-      <c r="D88" s="35" t="s">
+      <c r="C88" s="3"/>
+      <c r="D88" s="23" t="s">
         <v>200</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F88" s="2"/>
-      <c r="G88" s="9"/>
+      <c r="G88" s="8"/>
     </row>
     <row r="89" ht="18.5" spans="2:7">
       <c r="B89" s="2">
         <v>65</v>
       </c>
-      <c r="C89" s="24"/>
-      <c r="D89" s="35" t="s">
+      <c r="C89" s="3"/>
+      <c r="D89" s="23" t="s">
         <v>202</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>203</v>
       </c>
       <c r="F89" s="2"/>
-      <c r="G89" s="9"/>
+      <c r="G89" s="8"/>
     </row>
     <row r="90" ht="18.5" spans="2:7">
       <c r="B90" s="2">
         <v>66</v>
       </c>
-      <c r="C90" s="24"/>
-      <c r="D90" s="35" t="s">
+      <c r="C90" s="3"/>
+      <c r="D90" s="23" t="s">
         <v>204</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>205</v>
       </c>
       <c r="F90" s="2"/>
-      <c r="G90" s="9"/>
+      <c r="G90" s="8"/>
     </row>
     <row r="91" ht="18.5" spans="2:7">
       <c r="B91" s="2">
         <v>67</v>
       </c>
-      <c r="C91" s="24"/>
-      <c r="D91" s="36" t="s">
+      <c r="C91" s="3"/>
+      <c r="D91" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="E91" s="31" t="s">
+      <c r="E91" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="F91" s="31"/>
-      <c r="G91" s="9"/>
+      <c r="F91" s="19"/>
+      <c r="G91" s="8"/>
     </row>
     <row r="92" ht="18.5" spans="2:7">
       <c r="B92" s="2">
         <v>68</v>
       </c>
-      <c r="C92" s="20" t="s">
+      <c r="C92" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="D92" s="37" t="s">
+      <c r="D92" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="E92" s="31" t="s">
+      <c r="E92" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="F92" s="31"/>
-      <c r="G92" s="9"/>
+      <c r="F92" s="19"/>
+      <c r="G92" s="8"/>
     </row>
     <row r="93" ht="18.5" spans="2:7">
       <c r="B93" s="2">
         <v>69</v>
       </c>
-      <c r="C93" s="22"/>
-      <c r="D93" s="37" t="s">
+      <c r="C93" s="3"/>
+      <c r="D93" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="E93" s="31" t="s">
+      <c r="E93" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="F93" s="31"/>
-      <c r="G93" s="9"/>
+      <c r="F93" s="19"/>
+      <c r="G93" s="8"/>
     </row>
     <row r="94" ht="18.5" spans="2:7">
       <c r="B94" s="2">
         <v>70</v>
       </c>
-      <c r="C94" s="22"/>
-      <c r="D94" s="37" t="s">
+      <c r="C94" s="3"/>
+      <c r="D94" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="E94" s="31" t="s">
+      <c r="E94" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="F94" s="31"/>
-      <c r="G94" s="9"/>
+      <c r="F94" s="19"/>
+      <c r="G94" s="8"/>
     </row>
     <row r="95" ht="18.5" spans="2:7">
       <c r="B95" s="2">
         <v>71</v>
       </c>
-      <c r="C95" s="23"/>
-      <c r="D95" s="37" t="s">
+      <c r="C95" s="3"/>
+      <c r="D95" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="E95" s="31" t="s">
+      <c r="E95" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="F95" s="31"/>
-      <c r="G95" s="9"/>
+      <c r="F95" s="19"/>
+      <c r="G95" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="11">
